--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_19.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>481089.6332646935</v>
+        <v>572993.6190112255</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13449362.95725862</v>
+        <v>13429915.07084234</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8061540.569576297</v>
+        <v>8500160.873447182</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8741886.626604717</v>
+        <v>8539018.105195755</v>
       </c>
     </row>
     <row r="11">
@@ -668,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>39.70122005612006</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>165.1725371760943</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>187.5255871663196</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>187.5255871663196</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.5255871663196</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,16 +752,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>49.98383149362999</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409152</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265846</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -789,13 +791,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="U3" t="n">
-        <v>113.7456791730033</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -838,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>38.11163636040544</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402859</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>52.21594625443454</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>39.70122005611939</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>187.5255871663195</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>187.5255871663195</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>187.5255871663195</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>125.4713171199748</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>6.396723986041543</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -975,28 +977,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>34.19744605755714</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>58.90455890409152</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>13.45644170423155</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>72.43289562846324</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1038,10 +1040,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
     </row>
     <row r="7">
@@ -1069,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>52.21594625443403</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1093,10 +1095,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>18.10760906709383</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>34.1083371873407</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1136,22 +1138,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>411.8707348436268</v>
+        <v>187.52558716632</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>165.1725371760946</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>258.3748850577529</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,25 +1211,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>70.84537907623495</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1263,22 +1265,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1306,16 +1308,16 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.5398113612452</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>64.27748366064608</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923925</v>
+        <v>38.11163636040603</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>14.1043098940285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425553</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1376,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>184.6448939492126</v>
+        <v>326.452304119939</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1388,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1458,16 +1460,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933836</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657081</v>
+        <v>134.999469165707</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1531,22 +1533,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>143.6484612441724</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1585,16 +1587,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>149.3991884271815</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1616,16 +1618,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>63.42545656316759</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,16 +1660,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>168.1158122680967</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1704,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1768,13 +1770,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>146.8428862394544</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>143.6484612441728</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
@@ -1841,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1856,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1898,19 +1900,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>42.33754785337332</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>46.27182779876143</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2002,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>51.90212653415731</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -2053,19 +2055,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>92.49105144235493</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2096,7 +2098,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>21.27864063894942</v>
       </c>
       <c r="T20" t="n">
-        <v>168.1158122680967</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2175,7 +2177,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851095</v>
       </c>
       <c r="I21" t="n">
         <v>18.81721868247742</v>
@@ -2214,7 +2216,7 @@
         <v>190.7165703189231</v>
       </c>
       <c r="U21" t="n">
-        <v>225.7871683969284</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2293,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>115.0138334144183</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>20.95866062610916</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>170.6047553962378</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2333,7 +2335,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2369,13 +2371,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>259.2710716128397</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2473,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>141.4558507036724</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2527,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>155.5594962886089</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2542,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2567,10 +2569,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>25.87859906451666</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2606,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>66.76157983985581</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2764,16 +2766,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>53.54735467376837</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>127.6496787807628</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2789,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2801,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>410.9217256534534</v>
@@ -2840,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>225.750889292395</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>24.26938334575097</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2883,7 +2885,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>134.9994691657076</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
         <v>89.59687541851115</v>
@@ -2950,22 +2952,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>93.35882079147999</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>81.4608434426853</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3007,13 +3009,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3038,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>410.9217256534534</v>
@@ -3047,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3083,7 +3085,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>34.43410098197519</v>
+        <v>51.86882667667036</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3187,13 +3189,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>127.6496787807633</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3238,13 +3240,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>203.7029035467942</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>56.9850088983779</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3272,10 +3274,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
@@ -3284,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>188.6059442291521</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>42.62006017122184</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>141.7614152959627</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3490,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3506,10 +3508,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3518,7 +3520,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>195.0465954186443</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,16 +3556,16 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>200.8052136229461</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3600,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>72.08802744677213</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3712,16 +3714,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>20.95866062610916</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3746,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3791,19 +3793,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>200.8052136229461</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>333.9289428069453</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3904,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>87.93270968653144</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>53.54735467376837</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3955,10 +3957,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3980,7 +3982,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3989,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>229.796569204138</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4034,10 +4036,10 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>195.0465954186442</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4074,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4186,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>93.26432376800037</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>127.6496787807628</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.00204697330557</v>
+        <v>710.0001061843509</v>
       </c>
       <c r="C2" t="n">
-        <v>15.00204697330557</v>
+        <v>710.0001061843509</v>
       </c>
       <c r="D2" t="n">
-        <v>15.00204697330557</v>
+        <v>710.0001061843509</v>
       </c>
       <c r="E2" t="n">
-        <v>15.00204697330557</v>
+        <v>710.0001061843509</v>
       </c>
       <c r="F2" t="n">
-        <v>15.00204697330557</v>
+        <v>520.580321167866</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330557</v>
+        <v>331.1605361513812</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330557</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330557</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678498</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058962</v>
+        <v>80.81213159058953</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079182</v>
+        <v>191.8743094079189</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644751</v>
+        <v>347.121819064476</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123822</v>
+        <v>509.4952041123834</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985576</v>
+        <v>649.4845259985588</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020256</v>
+        <v>734.4611726020271</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652786</v>
+        <v>710.0001061843509</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652786</v>
+        <v>710.0001061843509</v>
       </c>
       <c r="V2" t="n">
-        <v>583.2614020227591</v>
+        <v>710.0001061843509</v>
       </c>
       <c r="W2" t="n">
-        <v>393.8416170062745</v>
+        <v>710.0001061843509</v>
       </c>
       <c r="X2" t="n">
-        <v>204.4218319897901</v>
+        <v>710.0001061843509</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.00204697330557</v>
+        <v>710.0001061843509</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>635.2077232380025</v>
+        <v>371.2627786323105</v>
       </c>
       <c r="C3" t="n">
-        <v>635.2077232380025</v>
+        <v>371.2627786323105</v>
       </c>
       <c r="D3" t="n">
-        <v>635.2077232380025</v>
+        <v>371.2627786323105</v>
       </c>
       <c r="E3" t="n">
-        <v>475.9702682325469</v>
+        <v>212.025323626855</v>
       </c>
       <c r="F3" t="n">
-        <v>329.4357102594319</v>
+        <v>65.49076565373994</v>
       </c>
       <c r="G3" t="n">
-        <v>191.896529081881</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H3" t="n">
-        <v>90.03616812153788</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I3" t="n">
-        <v>30.53661367296058</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330557</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024202</v>
+        <v>67.13418877024218</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772646</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M3" t="n">
-        <v>338.769091114024</v>
+        <v>338.7690911140245</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546596</v>
+        <v>512.5000587546607</v>
       </c>
       <c r="O3" t="n">
-        <v>649.210157847634</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017052</v>
+        <v>739.5989987017068</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652786</v>
+        <v>560.6825636487954</v>
       </c>
       <c r="U3" t="n">
-        <v>635.2077232380025</v>
+        <v>560.6825636487954</v>
       </c>
       <c r="V3" t="n">
-        <v>635.2077232380025</v>
+        <v>371.2627786323105</v>
       </c>
       <c r="W3" t="n">
-        <v>635.2077232380025</v>
+        <v>371.2627786323105</v>
       </c>
       <c r="X3" t="n">
-        <v>635.2077232380025</v>
+        <v>371.2627786323105</v>
       </c>
       <c r="Y3" t="n">
-        <v>635.2077232380025</v>
+        <v>371.2627786323105</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702828944</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C4" t="n">
-        <v>67.74542702828944</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D4" t="n">
-        <v>67.74542702828944</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E4" t="n">
-        <v>67.74542702828944</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F4" t="n">
-        <v>67.74542702828944</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G4" t="n">
-        <v>67.74542702828944</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H4" t="n">
-        <v>67.74542702828944</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I4" t="n">
-        <v>67.74542702828944</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J4" t="n">
-        <v>29.24882464404152</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230162</v>
+        <v>27.0396705623018</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170694</v>
+        <v>42.98993985170723</v>
       </c>
       <c r="N4" t="n">
-        <v>66.418473293963</v>
+        <v>66.41847329396344</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702829</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702829</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702829</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702829</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702829</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702829</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702829</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702829</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702829</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702829</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702828944</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>750.1023486652779</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="C5" t="n">
-        <v>750.1023486652779</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D5" t="n">
-        <v>750.1023486652779</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E5" t="n">
-        <v>710.0001061843492</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F5" t="n">
-        <v>520.5803211678649</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G5" t="n">
-        <v>331.1605361513806</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H5" t="n">
-        <v>141.7407511348962</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I5" t="n">
-        <v>15.00204697330556</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J5" t="n">
-        <v>21.03371160678483</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K5" t="n">
-        <v>80.81213159058916</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L5" t="n">
-        <v>191.8743094079178</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M5" t="n">
-        <v>347.1218190644746</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N5" t="n">
-        <v>509.4952041123817</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O5" t="n">
-        <v>649.4845259985568</v>
+        <v>649.4845259985585</v>
       </c>
       <c r="P5" t="n">
-        <v>734.4611726020249</v>
+        <v>734.4611726020269</v>
       </c>
       <c r="Q5" t="n">
-        <v>750.1023486652779</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R5" t="n">
-        <v>750.1023486652779</v>
+        <v>743.6410113056421</v>
       </c>
       <c r="S5" t="n">
-        <v>750.1023486652779</v>
+        <v>583.2614020227602</v>
       </c>
       <c r="T5" t="n">
-        <v>750.1023486652779</v>
+        <v>583.2614020227602</v>
       </c>
       <c r="U5" t="n">
-        <v>750.1023486652779</v>
+        <v>583.2614020227602</v>
       </c>
       <c r="V5" t="n">
-        <v>750.1023486652779</v>
+        <v>393.8416170062753</v>
       </c>
       <c r="W5" t="n">
-        <v>750.1023486652779</v>
+        <v>393.8416170062753</v>
       </c>
       <c r="X5" t="n">
-        <v>750.1023486652779</v>
+        <v>393.8416170062753</v>
       </c>
       <c r="Y5" t="n">
-        <v>750.1023486652779</v>
+        <v>393.8416170062753</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>357.4393951609543</v>
+        <v>203.0474416122423</v>
       </c>
       <c r="C6" t="n">
-        <v>357.4393951609543</v>
+        <v>28.59441233111525</v>
       </c>
       <c r="D6" t="n">
-        <v>322.8965203553411</v>
+        <v>28.59441233111525</v>
       </c>
       <c r="E6" t="n">
-        <v>322.8965203553411</v>
+        <v>28.59441233111525</v>
       </c>
       <c r="F6" t="n">
-        <v>176.361962382226</v>
+        <v>28.59441233111525</v>
       </c>
       <c r="G6" t="n">
-        <v>176.361962382226</v>
+        <v>28.59441233111525</v>
       </c>
       <c r="H6" t="n">
-        <v>74.50160142188285</v>
+        <v>28.59441233111525</v>
       </c>
       <c r="I6" t="n">
-        <v>15.00204697330556</v>
+        <v>28.59441233111525</v>
       </c>
       <c r="J6" t="n">
-        <v>15.00204697330502</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K6" t="n">
-        <v>67.13418877024142</v>
+        <v>67.13418877024213</v>
       </c>
       <c r="L6" t="n">
-        <v>183.5548280772641</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M6" t="n">
-        <v>338.7690911140234</v>
+        <v>338.7690911140245</v>
       </c>
       <c r="N6" t="n">
-        <v>512.5000587546589</v>
+        <v>512.5000587546602</v>
       </c>
       <c r="O6" t="n">
-        <v>649.2101578476334</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P6" t="n">
-        <v>739.5989987017045</v>
+        <v>739.5989987017066</v>
       </c>
       <c r="Q6" t="n">
-        <v>750.1023486652779</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R6" t="n">
-        <v>676.9378076264261</v>
+        <v>750.10234866528</v>
       </c>
       <c r="S6" t="n">
-        <v>525.6547321810224</v>
+        <v>750.10234866528</v>
       </c>
       <c r="T6" t="n">
-        <v>525.6547321810224</v>
+        <v>750.10234866528</v>
       </c>
       <c r="U6" t="n">
-        <v>525.6547321810224</v>
+        <v>750.10234866528</v>
       </c>
       <c r="V6" t="n">
-        <v>525.6547321810224</v>
+        <v>750.10234866528</v>
       </c>
       <c r="W6" t="n">
-        <v>525.6547321810224</v>
+        <v>750.10234866528</v>
       </c>
       <c r="X6" t="n">
-        <v>525.6547321810224</v>
+        <v>560.6825636487952</v>
       </c>
       <c r="Y6" t="n">
-        <v>525.6547321810224</v>
+        <v>371.2627786323103</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>67.74542702828943</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C7" t="n">
-        <v>67.74542702828943</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D7" t="n">
-        <v>67.74542702828943</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E7" t="n">
-        <v>67.74542702828943</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F7" t="n">
-        <v>67.74542702828943</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G7" t="n">
-        <v>67.74542702828943</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H7" t="n">
-        <v>15.00204697330556</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I7" t="n">
-        <v>15.00204697330556</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J7" t="n">
-        <v>15.00204697330556</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K7" t="n">
-        <v>15.00204697330556</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L7" t="n">
-        <v>27.03967056230161</v>
+        <v>27.03967056230179</v>
       </c>
       <c r="M7" t="n">
-        <v>42.98993985170693</v>
+        <v>42.98993985170723</v>
       </c>
       <c r="N7" t="n">
-        <v>66.41847329396299</v>
+        <v>66.41847329396343</v>
       </c>
       <c r="O7" t="n">
-        <v>67.74542702828943</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="P7" t="n">
-        <v>67.74542702828943</v>
+        <v>49.45491281910429</v>
       </c>
       <c r="Q7" t="n">
-        <v>67.74542702828943</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="R7" t="n">
-        <v>67.74542702828943</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="S7" t="n">
-        <v>67.74542702828943</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="T7" t="n">
-        <v>67.74542702828943</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="U7" t="n">
-        <v>67.74542702828943</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="V7" t="n">
-        <v>67.74542702828943</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="W7" t="n">
-        <v>67.74542702828943</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="X7" t="n">
-        <v>67.74542702828943</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y7" t="n">
-        <v>67.74542702828943</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>949.3392845809428</v>
+        <v>750.10234866528</v>
       </c>
       <c r="C8" t="n">
-        <v>949.3392845809428</v>
+        <v>750.10234866528</v>
       </c>
       <c r="D8" t="n">
-        <v>949.3392845809428</v>
+        <v>560.6825636487952</v>
       </c>
       <c r="E8" t="n">
-        <v>949.3392845809428</v>
+        <v>371.2627786323103</v>
       </c>
       <c r="F8" t="n">
-        <v>538.3533797913353</v>
+        <v>371.2627786323103</v>
       </c>
       <c r="G8" t="n">
-        <v>122.3223344947425</v>
+        <v>181.8429936158254</v>
       </c>
       <c r="H8" t="n">
-        <v>122.3223344947425</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809306</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J8" t="n">
-        <v>152.50781843019</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232717</v>
+        <v>80.81213159058956</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711866</v>
+        <v>191.8743094079186</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.14846457873</v>
+        <v>347.1218190644756</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135166</v>
+        <v>509.4952041123831</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545596</v>
+        <v>649.4845259985586</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172447</v>
+        <v>734.4611726020269</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.10234866528</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.10234866528</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.10234866528</v>
       </c>
       <c r="U8" t="n">
-        <v>1914.852662567162</v>
+        <v>750.10234866528</v>
       </c>
       <c r="V8" t="n">
-        <v>1583.789775223591</v>
+        <v>750.10234866528</v>
       </c>
       <c r="W8" t="n">
-        <v>1583.789775223591</v>
+        <v>750.10234866528</v>
       </c>
       <c r="X8" t="n">
-        <v>1210.324016962511</v>
+        <v>750.10234866528</v>
       </c>
       <c r="Y8" t="n">
-        <v>949.3392845809428</v>
+        <v>750.10234866528</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>693.0104463829875</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C9" t="n">
-        <v>518.5574171018606</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D9" t="n">
-        <v>369.6230074406093</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E9" t="n">
-        <v>210.3855524351538</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F9" t="n">
-        <v>210.3855524351538</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G9" t="n">
-        <v>138.8245634692599</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809306</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809306</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562316</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504519</v>
+        <v>67.13418877024218</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104395</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789488</v>
+        <v>338.7690911140245</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.88538687358</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128146</v>
+        <v>649.2101578476351</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689047</v>
+        <v>739.5989987017065</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333487</v>
+        <v>750.1023486652799</v>
       </c>
       <c r="R9" t="n">
-        <v>1766.227047333487</v>
+        <v>750.1023486652799</v>
       </c>
       <c r="S9" t="n">
-        <v>1766.227047333487</v>
+        <v>750.1023486652799</v>
       </c>
       <c r="T9" t="n">
-        <v>1766.227047333487</v>
+        <v>560.6825636487951</v>
       </c>
       <c r="U9" t="n">
-        <v>1766.227047333487</v>
+        <v>393.8416170062753</v>
       </c>
       <c r="V9" t="n">
-        <v>1531.074939101744</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="W9" t="n">
-        <v>1276.837582373542</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="X9" t="n">
-        <v>1068.986082168009</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y9" t="n">
-        <v>861.2257834030556</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>276.6738474079219</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="C10" t="n">
-        <v>276.6738474079219</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="D10" t="n">
-        <v>276.6738474079219</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="E10" t="n">
-        <v>276.6738474079219</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="F10" t="n">
-        <v>276.6738474079219</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="G10" t="n">
-        <v>276.6738474079219</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="H10" t="n">
-        <v>126.6336339117146</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="I10" t="n">
-        <v>61.70688273934482</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809306</v>
+        <v>29.24882464404146</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981521</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018941</v>
+        <v>27.03967056230179</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927332</v>
+        <v>42.98993985170723</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377461</v>
+        <v>66.41847329396343</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033659</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="Q10" t="n">
-        <v>497.4664265514521</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="R10" t="n">
-        <v>497.4664265514521</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="S10" t="n">
-        <v>497.4664265514521</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="T10" t="n">
-        <v>497.4664265514521</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="U10" t="n">
-        <v>497.4664265514521</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="V10" t="n">
-        <v>497.4664265514521</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="W10" t="n">
-        <v>497.4664265514521</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="X10" t="n">
-        <v>497.4664265514521</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="Y10" t="n">
-        <v>276.6738474079219</v>
+        <v>67.74542702828998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1418.660964416652</v>
+        <v>1561.900772669911</v>
       </c>
       <c r="C11" t="n">
-        <v>1418.660964416652</v>
+        <v>1561.900772669911</v>
       </c>
       <c r="D11" t="n">
-        <v>1418.660964416652</v>
+        <v>1561.900772669911</v>
       </c>
       <c r="E11" t="n">
         <v>1232.150970528558</v>
@@ -5036,22 +5038,22 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
@@ -5063,28 +5065,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U11" t="n">
-        <v>2866.097597267229</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V11" t="n">
-        <v>2535.034709923658</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W11" t="n">
-        <v>2182.266054653544</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X11" t="n">
-        <v>1808.800296392464</v>
+        <v>1952.040104645723</v>
       </c>
       <c r="Y11" t="n">
-        <v>1418.660964416652</v>
+        <v>1561.900772669911</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5136,31 +5138,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y12" t="n">
         <v>1109.759191501176</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.5121164321834</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="C13" t="n">
-        <v>66.5121164321834</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="D13" t="n">
-        <v>66.5121164321834</v>
+        <v>770.7703664058488</v>
       </c>
       <c r="E13" t="n">
-        <v>66.5121164321834</v>
+        <v>622.8572728234557</v>
       </c>
       <c r="F13" t="n">
-        <v>66.5121164321834</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G13" t="n">
-        <v>66.5121164321834</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H13" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K13" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L13" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M13" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N13" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O13" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P13" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q13" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R13" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S13" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T13" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U13" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V13" t="n">
-        <v>666.202517612298</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W13" t="n">
-        <v>515.2942464737308</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X13" t="n">
-        <v>287.3046955757135</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y13" t="n">
-        <v>66.5121164321834</v>
+        <v>920.8870058181845</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1285.591601078694</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C14" t="n">
-        <v>916.6290841382827</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D14" t="n">
-        <v>558.3633855315322</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E14" t="n">
-        <v>172.575132933288</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F14" t="n">
-        <v>108.5090151927147</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912081</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810547</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
@@ -5306,22 +5308,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3119.628073993393</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="U14" t="n">
-        <v>3119.628073993393</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="V14" t="n">
-        <v>2788.565186649822</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="W14" t="n">
-        <v>2435.796531379708</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X14" t="n">
-        <v>2062.330773118628</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y14" t="n">
-        <v>1672.191441142816</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="15">
@@ -5355,28 +5357,28 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5410,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="C16" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="D16" t="n">
-        <v>772.5608581015648</v>
+        <v>770.7703664058491</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>622.857272823456</v>
       </c>
       <c r="F16" t="n">
         <v>477.7578170212613</v>
@@ -5434,52 +5436,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K16" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L16" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M16" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N16" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O16" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P16" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q16" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R16" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S16" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T16" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U16" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V16" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W16" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X16" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y16" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="17">
@@ -5489,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1519.135572818019</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C17" t="n">
-        <v>1519.135572818019</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D17" t="n">
-        <v>1160.869874211268</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E17" t="n">
-        <v>775.0816216130238</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F17" t="n">
-        <v>364.0957168234162</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G17" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
@@ -5546,19 +5548,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U17" t="n">
-        <v>2966.572205668595</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V17" t="n">
-        <v>2635.509318325025</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W17" t="n">
-        <v>2282.74066305491</v>
+        <v>2378.004821452004</v>
       </c>
       <c r="X17" t="n">
-        <v>1909.27490479383</v>
+        <v>2004.539063190924</v>
       </c>
       <c r="Y17" t="n">
-        <v>1519.135572818019</v>
+        <v>2004.539063190924</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C18" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D18" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E18" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F18" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G18" t="n">
-        <v>936.5735814686072</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H18" t="n">
-        <v>846.0716871064744</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I18" t="n">
-        <v>827.0643955080122</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>920.7416649986296</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>310.0549803959803</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="C19" t="n">
-        <v>310.0549803959803</v>
+        <v>530.184207459804</v>
       </c>
       <c r="D19" t="n">
-        <v>310.0549803959803</v>
+        <v>530.184207459804</v>
       </c>
       <c r="E19" t="n">
-        <v>310.0549803959803</v>
+        <v>530.184207459804</v>
       </c>
       <c r="F19" t="n">
-        <v>310.0549803959803</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G19" t="n">
         <v>310.0549803959803</v>
@@ -5671,52 +5673,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K19" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L19" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M19" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N19" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O19" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P19" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q19" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R19" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S19" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T19" t="n">
-        <v>920.8870058181855</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U19" t="n">
-        <v>920.8870058181855</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="V19" t="n">
-        <v>827.4617013309582</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="W19" t="n">
-        <v>538.0445312939976</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="X19" t="n">
-        <v>310.0549803959803</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="Y19" t="n">
-        <v>310.0549803959803</v>
+        <v>699.1203903877109</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2005.586939522201</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="C20" t="n">
-        <v>1636.624422581789</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D20" t="n">
-        <v>1278.358723975039</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E20" t="n">
-        <v>892.5704713767946</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F20" t="n">
-        <v>481.5845665871869</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218342</v>
@@ -5777,25 +5779,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3304.112245206191</v>
       </c>
       <c r="T20" t="n">
-        <v>3155.791869823214</v>
+        <v>3304.112245206191</v>
       </c>
       <c r="U20" t="n">
-        <v>3155.791869823214</v>
+        <v>3050.581768480028</v>
       </c>
       <c r="V20" t="n">
-        <v>3155.791869823214</v>
+        <v>3050.581768480028</v>
       </c>
       <c r="W20" t="n">
-        <v>3155.791869823214</v>
+        <v>2697.813113209913</v>
       </c>
       <c r="X20" t="n">
-        <v>2782.326111562134</v>
+        <v>2324.347354948834</v>
       </c>
       <c r="Y20" t="n">
-        <v>2392.186779586323</v>
+        <v>1934.208022973022</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H21" t="n">
         <v>85.51940803064545</v>
@@ -5862,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>66.51211643218342</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="C22" t="n">
-        <v>66.51211643218342</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="D22" t="n">
-        <v>66.51211643218342</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="E22" t="n">
-        <v>66.51211643218342</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="F22" t="n">
-        <v>66.51211643218342</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218342</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218342</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="J22" t="n">
-        <v>78.33486996962287</v>
+        <v>2483.053685760609</v>
       </c>
       <c r="K22" t="n">
-        <v>176.6457242372933</v>
+        <v>2581.364540028279</v>
       </c>
       <c r="L22" t="n">
-        <v>332.3555681596505</v>
+        <v>2737.074383950637</v>
       </c>
       <c r="M22" t="n">
-        <v>499.7880494588483</v>
+        <v>2904.506865249834</v>
       </c>
       <c r="N22" t="n">
-        <v>671.0968864886958</v>
+        <v>3075.815702279682</v>
       </c>
       <c r="O22" t="n">
-        <v>809.0152357068855</v>
+        <v>3213.734051497871</v>
       </c>
       <c r="P22" t="n">
-        <v>907.9662384596442</v>
+        <v>3312.68505425063</v>
       </c>
       <c r="Q22" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R22" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S22" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T22" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U22" t="n">
-        <v>920.8870058181849</v>
+        <v>3036.502954734814</v>
       </c>
       <c r="V22" t="n">
-        <v>804.7114165106916</v>
+        <v>2781.818466528927</v>
       </c>
       <c r="W22" t="n">
-        <v>515.2942464737309</v>
+        <v>2492.401296491967</v>
       </c>
       <c r="X22" t="n">
-        <v>287.3046955757135</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="Y22" t="n">
-        <v>66.51211643218342</v>
+        <v>2471.230932223169</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1619.798686923957</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="C23" t="n">
-        <v>1250.836169983545</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D23" t="n">
-        <v>892.5704713767946</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E23" t="n">
-        <v>892.5704713767946</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F23" t="n">
-        <v>481.5845665871869</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G23" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H23" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218286</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329464</v>
@@ -6017,22 +6019,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U23" t="n">
-        <v>2866.097597267229</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V23" t="n">
-        <v>2535.034709923658</v>
+        <v>3063.71585028307</v>
       </c>
       <c r="W23" t="n">
-        <v>2182.266054653544</v>
+        <v>2710.947195012955</v>
       </c>
       <c r="X23" t="n">
-        <v>2182.266054653544</v>
+        <v>2710.947195012955</v>
       </c>
       <c r="Y23" t="n">
-        <v>1792.126722677732</v>
+        <v>2320.807863037144</v>
       </c>
     </row>
     <row r="24">
@@ -6069,10 +6071,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>361.3151575124869</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="C25" t="n">
-        <v>361.3151575124869</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="D25" t="n">
-        <v>361.3151575124869</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E25" t="n">
-        <v>213.4020639300938</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F25" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G25" t="n">
         <v>66.51211643218342</v>
@@ -6175,22 +6177,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T25" t="n">
-        <v>763.7562014862567</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U25" t="n">
-        <v>763.7562014862567</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V25" t="n">
-        <v>763.7562014862567</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="W25" t="n">
-        <v>763.7562014862567</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="X25" t="n">
-        <v>763.7562014862567</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="Y25" t="n">
-        <v>542.9636223427266</v>
+        <v>377.0996507379416</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1616.654488422265</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="C26" t="n">
-        <v>1247.691971481853</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D26" t="n">
-        <v>889.4262728751025</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E26" t="n">
-        <v>503.6380202768583</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F26" t="n">
-        <v>92.65211548725074</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G26" t="n">
-        <v>66.5121164321834</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H26" t="n">
         <v>66.5121164321834</v>
@@ -6224,7 +6226,7 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K26" t="n">
         <v>589.2106210810553</v>
@@ -6254,22 +6256,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T26" t="n">
-        <v>3119.628073993392</v>
+        <v>3258.169882376993</v>
       </c>
       <c r="U26" t="n">
-        <v>3119.628073993392</v>
+        <v>3004.639405650829</v>
       </c>
       <c r="V26" t="n">
-        <v>3119.628073993392</v>
+        <v>2673.576518307258</v>
       </c>
       <c r="W26" t="n">
-        <v>2766.859418723278</v>
+        <v>2320.807863037144</v>
       </c>
       <c r="X26" t="n">
-        <v>2393.393660462198</v>
+        <v>2320.807863037144</v>
       </c>
       <c r="Y26" t="n">
-        <v>2003.254328486386</v>
+        <v>2320.807863037144</v>
       </c>
     </row>
     <row r="27">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="C28" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="D28" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="E28" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="F28" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="G28" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="H28" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="I28" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="J28" t="n">
-        <v>78.33486996962286</v>
+        <v>2483.053685760608</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6457242372932</v>
+        <v>2581.364540028279</v>
       </c>
       <c r="L28" t="n">
-        <v>332.3555681596505</v>
+        <v>2737.074383950636</v>
       </c>
       <c r="M28" t="n">
-        <v>499.7880494588483</v>
+        <v>2904.506865249834</v>
       </c>
       <c r="N28" t="n">
-        <v>671.0968864886958</v>
+        <v>3075.815702279681</v>
       </c>
       <c r="O28" t="n">
-        <v>809.0152357068855</v>
+        <v>3213.734051497871</v>
       </c>
       <c r="P28" t="n">
-        <v>907.9662384596442</v>
+        <v>3312.685054250629</v>
       </c>
       <c r="Q28" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R28" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S28" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T28" t="n">
-        <v>699.1203903877109</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U28" t="n">
-        <v>410.0175235133545</v>
+        <v>3036.502954734814</v>
       </c>
       <c r="V28" t="n">
-        <v>355.929286469144</v>
+        <v>2781.818466528927</v>
       </c>
       <c r="W28" t="n">
-        <v>66.5121164321834</v>
+        <v>2652.879397053409</v>
       </c>
       <c r="X28" t="n">
-        <v>66.5121164321834</v>
+        <v>2652.879397053409</v>
       </c>
       <c r="Y28" t="n">
-        <v>66.5121164321834</v>
+        <v>2652.879397053409</v>
       </c>
     </row>
     <row r="29">
@@ -6437,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1594.601034732593</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C29" t="n">
-        <v>1225.638517792182</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D29" t="n">
-        <v>867.3728191854311</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E29" t="n">
-        <v>481.5845665871869</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F29" t="n">
         <v>481.5845665871869</v>
@@ -6488,25 +6490,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U29" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V29" t="n">
-        <v>3097.574620303721</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W29" t="n">
-        <v>2744.805965033606</v>
+        <v>2400.229512818681</v>
       </c>
       <c r="X29" t="n">
-        <v>2371.340206772526</v>
+        <v>2026.763754557601</v>
       </c>
       <c r="Y29" t="n">
-        <v>1981.200874796715</v>
+        <v>1636.624422581789</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C30" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D30" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E30" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F30" t="n">
-        <v>1072.936681635988</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>936.573581468607</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H30" t="n">
-        <v>846.0716871064745</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>827.0643955080125</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
-        <v>920.7416649986299</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M30" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N30" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O30" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P30" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q30" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R30" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S30" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T30" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V30" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W30" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y30" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>920.8870058181849</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C31" t="n">
-        <v>751.950822890278</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D31" t="n">
-        <v>601.8341834779422</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E31" t="n">
-        <v>453.9210898955491</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F31" t="n">
-        <v>307.0311423976387</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G31" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H31" t="n">
         <v>66.5121164321834</v>
@@ -6646,25 +6648,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S31" t="n">
-        <v>920.8870058181849</v>
+        <v>838.6033255730482</v>
       </c>
       <c r="T31" t="n">
-        <v>920.8870058181849</v>
+        <v>838.6033255730482</v>
       </c>
       <c r="U31" t="n">
-        <v>920.8870058181849</v>
+        <v>838.6033255730482</v>
       </c>
       <c r="V31" t="n">
-        <v>920.8870058181849</v>
+        <v>583.9188373671614</v>
       </c>
       <c r="W31" t="n">
-        <v>920.8870058181849</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="X31" t="n">
-        <v>920.8870058181849</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="Y31" t="n">
-        <v>920.8870058181849</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="32">
@@ -6674,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1250.80968089488</v>
+        <v>1619.798686923957</v>
       </c>
       <c r="C32" t="n">
-        <v>881.8471639544687</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D32" t="n">
-        <v>523.5814653477182</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E32" t="n">
-        <v>523.5814653477182</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F32" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I32" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K32" t="n">
         <v>589.2106210810553</v>
@@ -6731,19 +6733,19 @@
         <v>3119.628073993392</v>
       </c>
       <c r="U32" t="n">
-        <v>3084.846153809579</v>
+        <v>3067.235319774533</v>
       </c>
       <c r="V32" t="n">
-        <v>2753.783266466008</v>
+        <v>2736.172432430963</v>
       </c>
       <c r="W32" t="n">
-        <v>2401.014611195894</v>
+        <v>2383.403777160848</v>
       </c>
       <c r="X32" t="n">
-        <v>2027.548852934814</v>
+        <v>2009.938018899768</v>
       </c>
       <c r="Y32" t="n">
-        <v>1637.409520959002</v>
+        <v>1619.798686923957</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C33" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D33" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E33" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F33" t="n">
-        <v>1072.936681635988</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>936.5735814686066</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H33" t="n">
-        <v>846.0716871064741</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>827.064395508012</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J33" t="n">
-        <v>920.7416649986294</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M33" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N33" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O33" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P33" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q33" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R33" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S33" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T33" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V33" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W33" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y33" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2938.196848145805</v>
+        <v>195.4511859077019</v>
       </c>
       <c r="C34" t="n">
-        <v>2769.260665217898</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D34" t="n">
-        <v>2619.144025805562</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J34" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K34" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L34" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M34" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N34" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O34" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P34" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R34" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S34" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T34" t="n">
-        <v>3119.845312976045</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U34" t="n">
-        <v>3119.845312976045</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V34" t="n">
-        <v>3119.845312976045</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="W34" t="n">
-        <v>3119.845312976045</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="X34" t="n">
-        <v>3119.845312976045</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="Y34" t="n">
-        <v>3119.845312976045</v>
+        <v>377.0996507379416</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2005.586939522201</v>
+        <v>1250.80968089488</v>
       </c>
       <c r="C35" t="n">
-        <v>1636.624422581789</v>
+        <v>881.8471639544687</v>
       </c>
       <c r="D35" t="n">
-        <v>1278.358723975039</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="E35" t="n">
-        <v>892.5704713767946</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F35" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G35" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H35" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
         <v>66.5121164321834</v>
@@ -6962,25 +6964,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T35" t="n">
-        <v>3135.094766832249</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U35" t="n">
-        <v>3135.094766832249</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V35" t="n">
-        <v>3135.094766832249</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W35" t="n">
-        <v>2782.326111562134</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X35" t="n">
-        <v>2782.326111562134</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y35" t="n">
-        <v>2392.186779586323</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="36">
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>920.8870058181849</v>
+        <v>428.615504601943</v>
       </c>
       <c r="C37" t="n">
-        <v>751.950822890278</v>
+        <v>259.6793216740361</v>
       </c>
       <c r="D37" t="n">
-        <v>601.8341834779422</v>
+        <v>109.5626822617004</v>
       </c>
       <c r="E37" t="n">
-        <v>453.9210898955491</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F37" t="n">
-        <v>307.0311423976387</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G37" t="n">
-        <v>307.0311423976387</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H37" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I37" t="n">
         <v>66.5121164321834</v>
@@ -7117,28 +7119,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R37" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S37" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T37" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="U37" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="V37" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="W37" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="X37" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="Y37" t="n">
-        <v>920.8870058181849</v>
+        <v>610.2639694321828</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1844.338003964586</v>
+        <v>1619.798686923957</v>
       </c>
       <c r="C38" t="n">
-        <v>1475.375487024174</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D38" t="n">
-        <v>1475.375487024174</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E38" t="n">
-        <v>1089.58723442593</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F38" t="n">
-        <v>678.6013296363226</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G38" t="n">
-        <v>263.5288794813191</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
         <v>255.3912473912089</v>
@@ -7187,37 +7189,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.60582160917</v>
+        <v>3122.772272495085</v>
       </c>
       <c r="U38" t="n">
-        <v>3325.60582160917</v>
+        <v>3122.772272495085</v>
       </c>
       <c r="V38" t="n">
-        <v>2994.542934265599</v>
+        <v>3122.772272495085</v>
       </c>
       <c r="W38" t="n">
-        <v>2994.542934265599</v>
+        <v>2770.00361722497</v>
       </c>
       <c r="X38" t="n">
-        <v>2621.07717600452</v>
+        <v>2396.53785896389</v>
       </c>
       <c r="Y38" t="n">
-        <v>2230.937844028708</v>
+        <v>2006.398526988078</v>
       </c>
     </row>
     <row r="39">
@@ -7227,31 +7229,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
@@ -7284,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7293,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3252.789632268996</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="C40" t="n">
-        <v>3083.853449341089</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="D40" t="n">
-        <v>2933.736809928754</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="E40" t="n">
-        <v>2785.82371634636</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="F40" t="n">
-        <v>2638.93376884845</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="G40" t="n">
-        <v>2471.230932223169</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="H40" t="n">
-        <v>2471.230932223169</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="I40" t="n">
-        <v>2471.230932223169</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="J40" t="n">
-        <v>2483.053685760608</v>
+        <v>2483.05368576061</v>
       </c>
       <c r="K40" t="n">
-        <v>2581.364540028279</v>
+        <v>2581.36454002828</v>
       </c>
       <c r="L40" t="n">
-        <v>2737.074383950636</v>
+        <v>2737.074383950638</v>
       </c>
       <c r="M40" t="n">
-        <v>2904.506865249834</v>
+        <v>2904.506865249835</v>
       </c>
       <c r="N40" t="n">
-        <v>3075.815702279681</v>
+        <v>3075.815702279683</v>
       </c>
       <c r="O40" t="n">
-        <v>3213.734051497871</v>
+        <v>3213.734051497872</v>
       </c>
       <c r="P40" t="n">
-        <v>3312.685054250629</v>
+        <v>3312.685054250631</v>
       </c>
       <c r="Q40" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R40" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S40" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T40" t="n">
-        <v>3325.60582160917</v>
+        <v>3304.435457340374</v>
       </c>
       <c r="U40" t="n">
-        <v>3325.60582160917</v>
+        <v>3015.332590466018</v>
       </c>
       <c r="V40" t="n">
-        <v>3325.60582160917</v>
+        <v>2760.648102260131</v>
       </c>
       <c r="W40" t="n">
-        <v>3325.60582160917</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="X40" t="n">
-        <v>3325.60582160917</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="Y40" t="n">
-        <v>3325.60582160917</v>
+        <v>2471.23093222317</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2005.586939522201</v>
+        <v>1619.798686923957</v>
       </c>
       <c r="C41" t="n">
-        <v>1636.624422581789</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D41" t="n">
-        <v>1278.358723975039</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E41" t="n">
         <v>892.5704713767946</v>
@@ -7400,61 +7402,61 @@
         <v>481.5845665871869</v>
       </c>
       <c r="G41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V41" t="n">
-        <v>3119.628073993392</v>
+        <v>3122.772272495085</v>
       </c>
       <c r="W41" t="n">
-        <v>3119.628073993392</v>
+        <v>2770.00361722497</v>
       </c>
       <c r="X41" t="n">
-        <v>2782.326111562134</v>
+        <v>2396.53785896389</v>
       </c>
       <c r="Y41" t="n">
-        <v>2392.186779586323</v>
+        <v>2006.398526988078</v>
       </c>
     </row>
     <row r="42">
@@ -7479,16 +7481,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031479</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>120.6003534763939</v>
+        <v>155.3330353074677</v>
       </c>
       <c r="C43" t="n">
-        <v>120.6003534763939</v>
+        <v>155.3330353074677</v>
       </c>
       <c r="D43" t="n">
-        <v>120.6003534763939</v>
+        <v>155.3330353074677</v>
       </c>
       <c r="E43" t="n">
-        <v>120.6003534763939</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F43" t="n">
-        <v>120.6003534763939</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K43" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L43" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M43" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N43" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O43" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P43" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q43" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R43" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S43" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T43" t="n">
-        <v>699.1203903877109</v>
+        <v>699.120390387711</v>
       </c>
       <c r="U43" t="n">
-        <v>410.0175235133545</v>
+        <v>410.0175235133546</v>
       </c>
       <c r="V43" t="n">
-        <v>410.0175235133545</v>
+        <v>155.3330353074677</v>
       </c>
       <c r="W43" t="n">
-        <v>120.6003534763939</v>
+        <v>155.3330353074677</v>
       </c>
       <c r="X43" t="n">
-        <v>120.6003534763939</v>
+        <v>155.3330353074677</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.6003534763939</v>
+        <v>155.3330353074677</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1647.321240915451</v>
+        <v>1822.632236038044</v>
       </c>
       <c r="C44" t="n">
-        <v>1278.358723975039</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D44" t="n">
-        <v>1278.358723975039</v>
+        <v>1095.404020490882</v>
       </c>
       <c r="E44" t="n">
-        <v>892.5704713767946</v>
+        <v>709.6157678926375</v>
       </c>
       <c r="F44" t="n">
-        <v>481.5845665871869</v>
+        <v>298.6298631030299</v>
       </c>
       <c r="G44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912079</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V44" t="n">
-        <v>2994.542934265599</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W44" t="n">
-        <v>2797.526171216464</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X44" t="n">
-        <v>2424.060412955384</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y44" t="n">
-        <v>2033.921080979572</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="45">
@@ -7701,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I45" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C46" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D46" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E46" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F46" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G46" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H46" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K46" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L46" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M46" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N46" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O46" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P46" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q46" t="n">
-        <v>3325.60582160917</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R46" t="n">
-        <v>3325.60582160917</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S46" t="n">
-        <v>3325.60582160917</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T46" t="n">
-        <v>3325.60582160917</v>
+        <v>826.6806181737402</v>
       </c>
       <c r="U46" t="n">
-        <v>3036.502954734814</v>
+        <v>537.5777512993837</v>
       </c>
       <c r="V46" t="n">
-        <v>2781.818466528927</v>
+        <v>537.5777512993837</v>
       </c>
       <c r="W46" t="n">
-        <v>2652.879397053409</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="X46" t="n">
-        <v>2652.879397053409</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="Y46" t="n">
-        <v>2652.879397053409</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8134,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18.95836326784878</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.1043098940285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -8152,7 +8154,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709393</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8237,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8371,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -8392,7 +8394,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>34.57770336425653</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8553,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8629,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -22556,16 +22558,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>219.3504585753914</v>
       </c>
       <c r="G2" t="n">
-        <v>413.097833230058</v>
+        <v>225.572246063738</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>129.3682389399022</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199748</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368145</v>
+        <v>11.36529914368131</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900532</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>173.7426610000867</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>162.5797212940406</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>161.7153815510934</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>182.2055135121494</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897339</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22638,16 +22640,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>86.17995787214534</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265838</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,19 +22673,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714242</v>
+        <v>26.91122581714237</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>7.884010625681157</v>
       </c>
       <c r="U3" t="n">
-        <v>112.1180892370876</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>45.2749999831052</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -22726,7 +22728,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.43375830553082</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22744,10 +22746,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>18.10760906709383</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845843</v>
+        <v>3.343082173845772</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -22771,7 +22773,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>166.3687070976603</v>
       </c>
     </row>
     <row r="5">
@@ -22781,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>195.2082544971606</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>177.7473046046875</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>342.2291500161424</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>219.350458575392</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>225.5722460637386</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H5" t="n">
-        <v>129.3682389399029</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,10 +22831,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>77.0817190166639</v>
+        <v>4.968575157639769</v>
       </c>
       <c r="S5" t="n">
-        <v>158.7758131900532</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>213.4438810562068</v>
@@ -22841,7 +22843,7 @@
         <v>251.1692605650303</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>140.2266713038149</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22863,28 +22865,28 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>113.2476195070816</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.1637893657753</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J6" t="n">
-        <v>15.37922103265846</v>
+        <v>1.922779328426826</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,13 +22910,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>72.43289562846319</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T6" t="n">
-        <v>195.4095977920013</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U6" t="n">
         <v>225.8637684100909</v>
@@ -22926,10 +22928,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715747</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098435</v>
       </c>
     </row>
     <row r="7">
@@ -22957,16 +22959,16 @@
         <v>167.0019352027142</v>
       </c>
       <c r="H7" t="n">
-        <v>101.2177245773855</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I7" t="n">
         <v>125.7072197708667</v>
       </c>
       <c r="J7" t="n">
-        <v>57.06999962825422</v>
+        <v>23.43375830553082</v>
       </c>
       <c r="K7" t="n">
-        <v>14.10430989402859</v>
+        <v>14.1043098940285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22981,10 +22983,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>18.10760906709393</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.6860405515973</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>132.8223696106904</v>
@@ -23024,22 +23026,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>167.1574544543629</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059418</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>225.572246063738</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>151.7212889301276</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>77.08171901666375</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>127.8630535983007</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23097,31 +23099,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>64.6618547708003</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904885</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>15.37922103265838</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>72.43289562846319</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>7.884010625681213</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>60.6912312339964</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>45.27499998310526</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>64.1693959945996</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23191,16 +23193,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4515011109318</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I10" t="n">
-        <v>44.87668178643744</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>18.95836326784812</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23218,22 +23220,22 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>18.10760906709383</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>3.343082173845772</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596159</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T10" t="n">
-        <v>221.3678187343026</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2350578157167</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23245,7 +23247,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23264,7 +23266,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>197.2854761230492</v>
+        <v>55.47806595232277</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23306,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23349,7 +23351,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1.108446667785756e-12</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -23419,22 +23421,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>1.772586778758836</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -23473,16 +23475,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>137.1238099094095</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23504,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>343.4505891785439</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,16 +23548,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>35.80215787152341</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23656,13 +23658,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>1.772586778757926</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1.772586778758495</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -23729,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23744,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23786,19 +23788,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>208.6576241055287</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>302.9691409186516</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23890,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,10 +23901,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>93.51892148877394</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>159.6465918814731</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23966,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23984,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -24017,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>87.90912114922641</v>
       </c>
       <c r="T20" t="n">
-        <v>35.80215787152341</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24181,19 +24183,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>137.1238099094097</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>204.750994762928</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24203,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>212.1290862672428</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24221,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -24257,13 +24259,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>68.4811868572952</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24361,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>7.159622314540002</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24415,13 +24417,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>63.98945298756033</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24430,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24443,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24455,10 +24457,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>385.0431265889368</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -24494,22 +24496,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>137.1563902997643</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24652,16 +24654,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>198.5902886500596</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>158.8733195558282</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24677,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24689,7 +24691,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24728,19 +24730,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>102.0013691777399</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>324.9715853716621</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24838,22 +24840,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>72.66698746754824</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24886,7 +24888,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>108.3081818887566</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -24895,13 +24897,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24926,7 +24928,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24935,7 +24937,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24971,7 +24973,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>216.5610709769268</v>
+        <v>199.1263452822316</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25075,13 +25077,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>39.59714231786454</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25126,13 +25128,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>15.84604572937499</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>325.7488327651027</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25160,10 +25162,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25172,7 +25174,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>15.31202591046801</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>103.8139024753473</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>2.993599618358104</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -25378,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25394,10 +25396,10 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25406,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>99.56116896867618</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -25442,16 +25444,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>3.112756516674068</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25546,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>107.7439527351652</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25600,16 +25602,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>198.59028865006</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25634,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25679,19 +25681,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>126.9470448471888</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>35.80215787152378</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25792,13 +25794,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>58.50125296003773</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>112.4784535852599</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25843,10 +25845,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25868,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25877,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>181.1251564493155</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
@@ -25922,10 +25924,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>154.1943732987689</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26074,16 +26076,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>126.2846255081688</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>158.8733195558282</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>441764.2738844346</v>
+        <v>442963.9366358957</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>424931.0936061948</v>
+        <v>436950.3765713549</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>660895.7001297409</v>
+        <v>427675.4978580608</v>
       </c>
     </row>
     <row r="5">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>839054.4922903116</v>
+        <v>839054.4922903114</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>839054.4922903115</v>
+        <v>839054.4922903116</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>839054.4922903116</v>
+        <v>839054.4922903114</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>839054.4922903115</v>
+        <v>839054.4922903114</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>839054.4922903115</v>
+        <v>839054.4922903116</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>839054.4922903115</v>
+        <v>839054.4922903116</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>839054.4922903114</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>162876.6683993987</v>
+        <v>163202.2911462238</v>
       </c>
       <c r="C2" t="n">
-        <v>158307.6623238764</v>
+        <v>161570.0391287056</v>
       </c>
       <c r="D2" t="n">
-        <v>245978.4293365057</v>
+        <v>159052.5720493829</v>
       </c>
       <c r="E2" t="n">
-        <v>312588.9285003119</v>
+        <v>312588.9285003117</v>
       </c>
       <c r="F2" t="n">
         <v>312588.9285003118</v>
       </c>
       <c r="G2" t="n">
+        <v>312588.9285003119</v>
+      </c>
+      <c r="H2" t="n">
+        <v>312588.9285003119</v>
+      </c>
+      <c r="I2" t="n">
+        <v>312588.9285003116</v>
+      </c>
+      <c r="J2" t="n">
         <v>312588.9285003117</v>
       </c>
-      <c r="H2" t="n">
-        <v>312588.928500312</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>312588.9285003118</v>
+      </c>
+      <c r="L2" t="n">
         <v>312588.9285003117</v>
       </c>
-      <c r="J2" t="n">
-        <v>312588.9285003115</v>
-      </c>
-      <c r="K2" t="n">
-        <v>312588.9285003119</v>
-      </c>
-      <c r="L2" t="n">
-        <v>312588.9285003118</v>
-      </c>
       <c r="M2" t="n">
-        <v>312588.9285003118</v>
+        <v>312588.9285003117</v>
       </c>
       <c r="N2" t="n">
-        <v>312588.9285003119</v>
+        <v>312588.9285003117</v>
       </c>
       <c r="O2" t="n">
         <v>312588.9285003117</v>
       </c>
       <c r="P2" t="n">
-        <v>312588.9285003119</v>
+        <v>312588.9285003117</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208449</v>
+        <v>591356.9025208455</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>371558.5249487665</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>276030.74576691</v>
+        <v>627134.6436336674</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.9447285445</v>
+        <v>49064.94472854461</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>89743.37813127041</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>72091.35261608614</v>
+        <v>160456.4418678773</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4706.806193594515</v>
+        <v>5032.428940419639</v>
       </c>
       <c r="C4" t="n">
-        <v>137.8001180723338</v>
+        <v>3400.176922901371</v>
       </c>
       <c r="D4" t="n">
-        <v>1022.13278331401</v>
+        <v>882.7098435787007</v>
       </c>
       <c r="E4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.646989006123</v>
       </c>
       <c r="F4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="G4" t="n">
         <v>584.6469890061231</v>
@@ -26436,28 +26438,28 @@
         <v>584.646989006123</v>
       </c>
       <c r="I4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="J4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="K4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="L4" t="n">
         <v>584.6469890061232</v>
       </c>
       <c r="M4" t="n">
+        <v>584.6469890061231</v>
+      </c>
+      <c r="N4" t="n">
         <v>584.6469890061232</v>
       </c>
-      <c r="N4" t="n">
-        <v>584.646989006123</v>
-      </c>
       <c r="O4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061232</v>
       </c>
       <c r="P4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26469,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161354</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>56985.80041161353</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587224</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
         <v>74306.3405613933</v>
@@ -26503,13 +26505,13 @@
         <v>74306.34056139328</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
     </row>
     <row r="6">
@@ -26519,28 +26521,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-490172.8407266543</v>
+        <v>-490172.8407266549</v>
       </c>
       <c r="C6" t="n">
         <v>101184.0617941906</v>
       </c>
       <c r="D6" t="n">
-        <v>-211801.310251447</v>
+        <v>101184.0617941906</v>
       </c>
       <c r="E6" t="n">
-        <v>-38332.80481699746</v>
+        <v>-389436.7026837551</v>
       </c>
       <c r="F6" t="n">
+        <v>237697.9409499122</v>
+      </c>
+      <c r="G6" t="n">
         <v>237697.9409499124</v>
       </c>
-      <c r="G6" t="n">
-        <v>237697.9409499123</v>
-      </c>
       <c r="H6" t="n">
-        <v>237697.9409499125</v>
+        <v>237697.9409499124</v>
       </c>
       <c r="I6" t="n">
-        <v>237697.9409499123</v>
+        <v>237697.9409499122</v>
       </c>
       <c r="J6" t="n">
         <v>188632.9962213676</v>
@@ -26549,19 +26551,19 @@
         <v>237697.9409499124</v>
       </c>
       <c r="L6" t="n">
-        <v>147954.562818642</v>
+        <v>237697.9409499122</v>
       </c>
       <c r="M6" t="n">
-        <v>165606.5883338263</v>
+        <v>77241.49908203502</v>
       </c>
       <c r="N6" t="n">
-        <v>237697.9409499125</v>
+        <v>237697.9409499122</v>
       </c>
       <c r="O6" t="n">
         <v>237697.9409499123</v>
       </c>
       <c r="P6" t="n">
-        <v>237697.9409499124</v>
+        <v>237697.9409499123</v>
       </c>
     </row>
   </sheetData>
@@ -26735,22 +26737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129042</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>548.4699409129042</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376841</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26787,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>187.5255871663195</v>
+        <v>187.52558716632</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261632</v>
+        <v>187.52558716632</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022926</v>
@@ -26823,13 +26825,13 @@
         <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26957,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129042</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>305.2407236247799</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>236.0660360556142</v>
+        <v>541.3067596803934</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>354.5893695598437</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>289.2864986761293</v>
+        <v>643.8758682359726</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663195</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>354.5893695598437</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>289.2864986761293</v>
+        <v>643.8758682359726</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>354.5893695598437</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>289.2864986761293</v>
+        <v>643.8758682359726</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954483</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043114</v>
+        <v>85.00457245043121</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655542</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528637</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.950432967289</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470271</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470022</v>
+        <v>393.4265838470025</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622677</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244292</v>
+        <v>317.0679923244295</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151091</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974682</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619219</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924574</v>
+        <v>9.651968507924582</v>
       </c>
       <c r="U2" t="n">
-        <v>0.17639234280616</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31121,46 +31123,46 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590848</v>
+        <v>40.61782109590851</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340082</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621735</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405031</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975328</v>
+        <v>298.916117797533</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829652</v>
+        <v>306.8275379829659</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292671</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.276266862887</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550071</v>
+        <v>73.24660833550077</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288819</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820366</v>
+        <v>4.75513090282037</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390157</v>
+        <v>0.07761367088390164</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445813</v>
+        <v>0.9890441557445822</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620011</v>
+        <v>8.793501675620018</v>
       </c>
       <c r="I4" t="n">
-        <v>29.7432551563916</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114189</v>
+        <v>69.92542181114196</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276989</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604413</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592432</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784854</v>
+        <v>82.81896107784861</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647907</v>
+        <v>44.47102176647911</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181392</v>
+        <v>4.225915938181395</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061359</v>
+        <v>0.05394786304061363</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.204904285077</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H5" t="n">
-        <v>22.58097600954483</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I5" t="n">
-        <v>85.00457245043114</v>
+        <v>85.00457245043121</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1384950655542</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K5" t="n">
-        <v>280.4720934528637</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L5" t="n">
-        <v>347.950432967289</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M5" t="n">
-        <v>387.1618995470271</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N5" t="n">
-        <v>393.4265838470022</v>
+        <v>393.4265838470025</v>
       </c>
       <c r="O5" t="n">
-        <v>371.5015668622677</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P5" t="n">
-        <v>317.0679923244292</v>
+        <v>317.0679923244295</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.1048576151091</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R5" t="n">
-        <v>138.5038187974682</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S5" t="n">
-        <v>50.24425639619219</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T5" t="n">
-        <v>9.651968507924574</v>
+        <v>9.651968507924582</v>
       </c>
       <c r="U5" t="n">
-        <v>0.17639234280616</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31358,46 +31360,46 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H6" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I6" t="n">
-        <v>40.61782109590848</v>
+        <v>40.61782109590851</v>
       </c>
       <c r="J6" t="n">
-        <v>111.4584056340082</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K6" t="n">
-        <v>190.5001680621735</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L6" t="n">
-        <v>256.1509851405031</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M6" t="n">
-        <v>298.9161177975328</v>
+        <v>298.916117797533</v>
       </c>
       <c r="N6" t="n">
-        <v>306.8275379829652</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O6" t="n">
-        <v>280.6872536292671</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P6" t="n">
-        <v>225.276266862887</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R6" t="n">
-        <v>73.24660833550071</v>
+        <v>73.24660833550077</v>
       </c>
       <c r="S6" t="n">
-        <v>21.91292641288819</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T6" t="n">
-        <v>4.755130902820366</v>
+        <v>4.75513090282037</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07761367088390157</v>
+        <v>0.07761367088390164</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9890441557445813</v>
+        <v>0.9890441557445822</v>
       </c>
       <c r="H7" t="n">
-        <v>8.793501675620011</v>
+        <v>8.793501675620018</v>
       </c>
       <c r="I7" t="n">
-        <v>29.7432551563916</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J7" t="n">
-        <v>69.92542181114189</v>
+        <v>69.92542181114196</v>
       </c>
       <c r="K7" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L7" t="n">
-        <v>147.0438920276989</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M7" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N7" t="n">
-        <v>151.3507297604413</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O7" t="n">
-        <v>139.7968957592432</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P7" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.81896107784854</v>
+        <v>82.81896107784861</v>
       </c>
       <c r="R7" t="n">
-        <v>44.47102176647907</v>
+        <v>44.47102176647911</v>
       </c>
       <c r="S7" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T7" t="n">
-        <v>4.225915938181392</v>
+        <v>4.225915938181395</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05394786304061359</v>
+        <v>0.05394786304061363</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508275</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958413</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933229</v>
+        <v>85.00457245043121</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409257</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258711</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840426</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934779</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839008</v>
+        <v>393.4265838470025</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190903</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662298</v>
+        <v>317.0679923244295</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928395</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141319</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699491</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452748</v>
+        <v>9.651968507924582</v>
       </c>
       <c r="U8" t="n">
-        <v>0.274560213720662</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175396</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464133</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095115</v>
+        <v>40.61782109590851</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076062</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913577</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616798</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730378</v>
+        <v>298.916117797533</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152843</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884505</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475632</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349506</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867496</v>
+        <v>73.24660833550077</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053859</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057843</v>
+        <v>4.75513090282037</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.07761367088390164</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526971</v>
+        <v>0.9890441557445822</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619435</v>
+        <v>8.793501675620018</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017475</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001569</v>
+        <v>69.92542181114196</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490426</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368736</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282506</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420139</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595396</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099892</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451903</v>
+        <v>82.81896107784861</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153089</v>
+        <v>44.47102176647911</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735639</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978875</v>
+        <v>4.225915938181395</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.05394786304061363</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31996,40 +31998,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953981</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32148,43 +32150,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32233,40 +32235,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953983</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563555</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32385,43 +32387,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32491,10 +32493,10 @@
         <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781685</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563564</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
         <v>99.83230779806951</v>
@@ -32789,7 +32791,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138796</v>
@@ -33032,7 +33034,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
         <v>609.6478166837925</v>
@@ -33281,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33500,7 +33502,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353162</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138796</v>
@@ -33515,7 +33517,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
@@ -33907,7 +33909,7 @@
         <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.151212309905</v>
+        <v>738.1512123099063</v>
       </c>
       <c r="P38" t="n">
         <v>629.9949819746414</v>
@@ -34144,7 +34146,7 @@
         <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.151212309905</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
         <v>629.9949819746414</v>
@@ -34226,7 +34228,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987487</v>
@@ -34366,7 +34368,7 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953979</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
         <v>557.281137600381</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538867938</v>
+        <v>6.09259053886808</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788315</v>
+        <v>60.38224240788338</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973018</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197544</v>
+        <v>156.8156663197547</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504113</v>
+        <v>164.0135202504116</v>
       </c>
       <c r="O2" t="n">
-        <v>141.403355440581</v>
+        <v>141.4033554405813</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915967</v>
+        <v>85.83499656915996</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065958</v>
+        <v>15.79916774065978</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781455</v>
+        <v>52.65872908781472</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606289</v>
+        <v>117.5966053606291</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755144</v>
+        <v>156.7820838755147</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996319</v>
+        <v>175.4858258996325</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848227</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.3018594485568</v>
+        <v>91.301859448557</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764987</v>
+        <v>10.60944440764999</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646066</v>
+        <v>12.1592157464608</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061144</v>
+        <v>16.11138312061155</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520815</v>
+        <v>23.66518529520829</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400438</v>
+        <v>1.340357307400552</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.092590538867938</v>
+        <v>6.09259053886808</v>
       </c>
       <c r="K5" t="n">
-        <v>60.38224240788315</v>
+        <v>60.38224240788338</v>
       </c>
       <c r="L5" t="n">
-        <v>112.1840179973018</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M5" t="n">
-        <v>156.8156663197544</v>
+        <v>156.8156663197547</v>
       </c>
       <c r="N5" t="n">
-        <v>164.0135202504113</v>
+        <v>164.0135202504116</v>
       </c>
       <c r="O5" t="n">
-        <v>141.403355440581</v>
+        <v>141.4033554405813</v>
       </c>
       <c r="P5" t="n">
-        <v>85.83499656915967</v>
+        <v>85.83499656915996</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.79916774065958</v>
+        <v>15.79916774065978</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>52.65872908781455</v>
+        <v>52.65872908781472</v>
       </c>
       <c r="L6" t="n">
-        <v>117.5966053606289</v>
+        <v>117.5966053606291</v>
       </c>
       <c r="M6" t="n">
-        <v>156.7820838755144</v>
+        <v>156.7820838755147</v>
       </c>
       <c r="N6" t="n">
-        <v>175.4858258996319</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O6" t="n">
-        <v>138.0910091848227</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P6" t="n">
-        <v>91.3018594485568</v>
+        <v>91.301859448557</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.60944440764987</v>
+        <v>10.60944440764999</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>12.15921574646066</v>
+        <v>12.1592157464608</v>
       </c>
       <c r="M7" t="n">
-        <v>16.11138312061144</v>
+        <v>16.11138312061155</v>
       </c>
       <c r="N7" t="n">
-        <v>23.66518529520815</v>
+        <v>23.66518529520829</v>
       </c>
       <c r="O7" t="n">
-        <v>1.340357307400438</v>
+        <v>1.340357307400552</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142395</v>
+        <v>6.09259053886808</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808906</v>
+        <v>60.38224240788338</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140554</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662052</v>
+        <v>156.8156663197547</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873099</v>
+        <v>164.0135202504116</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974036</v>
+        <v>141.4033554405813</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109602</v>
+        <v>85.83499656915996</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.31198861839</v>
+        <v>15.79916774065978</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409395</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169987</v>
+        <v>52.65872908781472</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818056</v>
+        <v>117.5966053606291</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510195</v>
+        <v>156.7820838755147</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319509</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O9" t="n">
-        <v>294.302268944006</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332329</v>
+        <v>91.301859448557</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892906</v>
+        <v>10.60944440764999</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850724</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563528</v>
+        <v>12.1592157464608</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806455</v>
+        <v>16.11138312061155</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767807</v>
+        <v>23.66518529520829</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769682</v>
+        <v>1.340357307400552</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084162</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K13" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L13" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M13" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N13" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O13" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P13" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687118</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K16" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L16" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M16" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N16" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O16" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P16" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687127</v>
+        <v>190.787000968712</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222342</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K19" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L19" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M19" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N19" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O19" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P19" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36139,10 +36141,10 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.794304803719</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222434</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36437,7 +36439,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340054</v>
@@ -36680,7 +36682,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
         <v>478.3061046004592</v>
@@ -36929,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,7 +37150,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609572</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340054</v>
@@ -37163,7 +37165,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127272</v>
@@ -37555,7 +37557,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882182</v>
+        <v>508.0530008882196</v>
       </c>
       <c r="P38" t="n">
         <v>398.7619862193719</v>
@@ -37792,7 +37794,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882182</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193719</v>
@@ -37874,7 +37876,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127272</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687116</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554005</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>572993.6190112255</v>
+        <v>519071.8370226444</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13429915.07084234</v>
+        <v>12496676.879328</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8500160.873447182</v>
+        <v>7127088.055546219</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8539018.105195755</v>
+        <v>9252308.512969166</v>
       </c>
     </row>
     <row r="11">
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="G2" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="H2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>39.70122005612006</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>165.1725371760943</v>
       </c>
     </row>
     <row r="3">
@@ -746,19 +746,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>60.4416533031181</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>49.98383149362999</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.7788117555066</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,16 +788,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.43375830553089</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845843</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>138.3956966967175</v>
       </c>
       <c r="Y4" t="n">
-        <v>52.21594625443454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>187.52558716632</v>
+        <v>165.1725371760946</v>
       </c>
       <c r="C5" t="n">
         <v>187.52558716632</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>6.396723986041543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>13.45644170423155</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>179.9896253540988</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X6" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1095,10 +1095,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>18.10760906709383</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>34.1083371873407</v>
+        <v>3.343082173845772</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>182.3531069658545</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1138,19 +1138,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>187.52558716632</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>165.1725371760946</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>247.4260307871255</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1214,25 +1214,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>90.45775304024482</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.17372043046388</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,25 +1262,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>187.52558716632</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>165.1725371760945</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
-        <v>187.52558716632</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>187.52558716632</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>156.5831467345238</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1314,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>38.11163636040603</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>14.1043098940285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1344,19 +1344,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>326.452304119939</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,10 +1387,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1435,10 +1435,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>227.2621309673298</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.999469165707</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>143.6484612441724</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>57.92313614484745</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>110.9192708864257</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1624,10 +1624,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>168.1158122680967</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1776,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>143.6484612441728</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>1.434240791963707</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1861,10 +1861,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1906,10 +1906,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>46.27182779876143</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>361.3693442271775</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247721</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>51.90212653415731</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,16 +2058,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>139.2275206350204</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>21.27864063894942</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>116.93881574185</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2177,7 +2177,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851095</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
         <v>18.81721868247742</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>15.78862466349218</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>20.95866062610916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2320,22 +2320,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>235.9375844494541</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,19 +2371,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>259.2710716128397</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>141.4558507036724</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>173.626889274476</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2538,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>91.44574675721661</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>66.76157983985581</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>173.626889274476</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2775,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>127.6496787807628</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>232.8259547974224</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2845,7 +2845,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2854,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>24.26938334575097</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>97.16210696178898</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>81.4608434426853</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3037,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3079,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>51.86882667667036</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>58.92805047992029</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>127.6496787807633</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>173.626889274476</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3249,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>56.9850088983779</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>57.38876412871173</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
@@ -3325,13 +3325,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>61.60385878691261</v>
       </c>
       <c r="E37" t="n">
-        <v>42.62006017122184</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3511,16 +3511,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>131.7064327541184</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>200.8052136229461</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>163.6898441249713</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>20.95866062610916</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3745,16 +3745,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>147.5395905665085</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3799,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>200.8052136229461</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>87.93270968653144</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>203.4068132192031</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3960,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3979,10 +3979,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>158.5596236696483</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3991,13 +3991,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>229.796569204138</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>93.26432376800037</v>
+        <v>203.4068132192031</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>710.0001061843509</v>
+        <v>583.2614020227591</v>
       </c>
       <c r="C2" t="n">
-        <v>710.0001061843509</v>
+        <v>583.2614020227591</v>
       </c>
       <c r="D2" t="n">
-        <v>710.0001061843509</v>
+        <v>583.2614020227591</v>
       </c>
       <c r="E2" t="n">
-        <v>710.0001061843509</v>
+        <v>393.8416170062745</v>
       </c>
       <c r="F2" t="n">
-        <v>520.580321167866</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="G2" t="n">
-        <v>331.1605361513812</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678498</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058953</v>
+        <v>80.81213159058962</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079189</v>
+        <v>191.8743094079182</v>
       </c>
       <c r="M2" t="n">
-        <v>347.121819064476</v>
+        <v>347.1218190644751</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123834</v>
+        <v>509.4952041123822</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985588</v>
+        <v>649.4845259985576</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020271</v>
+        <v>734.4611726020256</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="T2" t="n">
-        <v>710.0001061843509</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="U2" t="n">
-        <v>710.0001061843509</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="V2" t="n">
-        <v>710.0001061843509</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="W2" t="n">
-        <v>710.0001061843509</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="X2" t="n">
-        <v>710.0001061843509</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="Y2" t="n">
-        <v>710.0001061843509</v>
+        <v>583.2614020227591</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>371.2627786323105</v>
+        <v>409.3994882033903</v>
       </c>
       <c r="C3" t="n">
-        <v>371.2627786323105</v>
+        <v>409.3994882033903</v>
       </c>
       <c r="D3" t="n">
-        <v>371.2627786323105</v>
+        <v>409.3994882033903</v>
       </c>
       <c r="E3" t="n">
-        <v>212.025323626855</v>
+        <v>348.3473131497357</v>
       </c>
       <c r="F3" t="n">
-        <v>65.49076565373994</v>
+        <v>201.8127551766207</v>
       </c>
       <c r="G3" t="n">
-        <v>15.0020469733056</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="H3" t="n">
-        <v>15.0020469733056</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024218</v>
+        <v>67.13418877024202</v>
       </c>
       <c r="L3" t="n">
-        <v>183.554828077265</v>
+        <v>183.5548280772646</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140245</v>
+        <v>338.769091114024</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546607</v>
+        <v>512.5000587546596</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476354</v>
+        <v>649.210157847634</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017068</v>
+        <v>739.5989987017052</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652803</v>
+        <v>598.8192732198748</v>
       </c>
       <c r="T3" t="n">
-        <v>560.6825636487954</v>
+        <v>598.8192732198748</v>
       </c>
       <c r="U3" t="n">
-        <v>560.6825636487954</v>
+        <v>409.3994882033903</v>
       </c>
       <c r="V3" t="n">
-        <v>371.2627786323105</v>
+        <v>409.3994882033903</v>
       </c>
       <c r="W3" t="n">
-        <v>371.2627786323105</v>
+        <v>409.3994882033903</v>
       </c>
       <c r="X3" t="n">
-        <v>371.2627786323105</v>
+        <v>409.3994882033903</v>
       </c>
       <c r="Y3" t="n">
-        <v>371.2627786323105</v>
+        <v>409.3994882033903</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.0020469733056</v>
+        <v>38.67250990818525</v>
       </c>
       <c r="C4" t="n">
-        <v>15.0020469733056</v>
+        <v>38.67250990818525</v>
       </c>
       <c r="D4" t="n">
-        <v>15.0020469733056</v>
+        <v>38.67250990818525</v>
       </c>
       <c r="E4" t="n">
-        <v>15.0020469733056</v>
+        <v>38.67250990818525</v>
       </c>
       <c r="F4" t="n">
-        <v>15.0020469733056</v>
+        <v>38.67250990818525</v>
       </c>
       <c r="G4" t="n">
-        <v>15.0020469733056</v>
+        <v>38.67250990818525</v>
       </c>
       <c r="H4" t="n">
-        <v>15.0020469733056</v>
+        <v>38.67250990818525</v>
       </c>
       <c r="I4" t="n">
-        <v>15.0020469733056</v>
+        <v>38.67250990818525</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="L4" t="n">
-        <v>27.0396705623018</v>
+        <v>187.8896250884405</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170723</v>
+        <v>373.539956383097</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396344</v>
+        <v>559.1902876777534</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702829</v>
+        <v>634.3723839608009</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702829</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702829</v>
+        <v>746.7254979846261</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702829</v>
+        <v>746.7254979846261</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702829</v>
+        <v>746.7254979846261</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702829</v>
+        <v>746.7254979846261</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702829</v>
+        <v>557.3057129681416</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702829</v>
+        <v>367.8859279516571</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702829</v>
+        <v>178.4661429351726</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702829</v>
+        <v>38.67250990818525</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.0020469733056</v>
+        <v>38.67250990818525</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>204.4218319897905</v>
+        <v>583.26140202276</v>
       </c>
       <c r="C5" t="n">
-        <v>15.0020469733056</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="D5" t="n">
-        <v>15.0020469733056</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="E5" t="n">
         <v>15.0020469733056</v>
@@ -4579,40 +4579,40 @@
         <v>347.1218190644755</v>
       </c>
       <c r="N5" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123829</v>
       </c>
       <c r="O5" t="n">
-        <v>649.4845259985585</v>
+        <v>649.4845259985584</v>
       </c>
       <c r="P5" t="n">
-        <v>734.4611726020269</v>
+        <v>734.4611726020266</v>
       </c>
       <c r="Q5" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R5" t="n">
-        <v>743.6410113056421</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S5" t="n">
-        <v>583.2614020227602</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="T5" t="n">
-        <v>583.2614020227602</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="U5" t="n">
-        <v>583.2614020227602</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="V5" t="n">
-        <v>393.8416170062753</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="W5" t="n">
-        <v>393.8416170062753</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="X5" t="n">
-        <v>393.8416170062753</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="Y5" t="n">
-        <v>393.8416170062753</v>
+        <v>750.1023486652798</v>
       </c>
     </row>
     <row r="6">
@@ -4622,34 +4622,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>203.0474416122423</v>
+        <v>189.4550762544326</v>
       </c>
       <c r="C6" t="n">
-        <v>28.59441233111525</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D6" t="n">
-        <v>28.59441233111525</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E6" t="n">
-        <v>28.59441233111525</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F6" t="n">
-        <v>28.59441233111525</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G6" t="n">
-        <v>28.59441233111525</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H6" t="n">
-        <v>28.59441233111525</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I6" t="n">
-        <v>28.59441233111525</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J6" t="n">
         <v>15.0020469733056</v>
       </c>
       <c r="K6" t="n">
-        <v>67.13418877024213</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L6" t="n">
         <v>183.554828077265</v>
@@ -4658,40 +4658,40 @@
         <v>338.7690911140245</v>
       </c>
       <c r="N6" t="n">
-        <v>512.5000587546602</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O6" t="n">
-        <v>649.2101578476352</v>
+        <v>649.2101578476348</v>
       </c>
       <c r="P6" t="n">
-        <v>739.5989987017066</v>
+        <v>739.5989987017064</v>
       </c>
       <c r="Q6" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R6" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S6" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="T6" t="n">
-        <v>750.10234866528</v>
+        <v>568.2946462874022</v>
       </c>
       <c r="U6" t="n">
-        <v>750.10234866528</v>
+        <v>568.2946462874022</v>
       </c>
       <c r="V6" t="n">
-        <v>750.10234866528</v>
+        <v>378.8748612709174</v>
       </c>
       <c r="W6" t="n">
-        <v>750.10234866528</v>
+        <v>189.4550762544326</v>
       </c>
       <c r="X6" t="n">
-        <v>560.6825636487952</v>
+        <v>189.4550762544326</v>
       </c>
       <c r="Y6" t="n">
-        <v>371.2627786323103</v>
+        <v>189.4550762544326</v>
       </c>
     </row>
     <row r="7">
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.0020469733056</v>
+        <v>183.6908704103906</v>
       </c>
       <c r="C7" t="n">
-        <v>15.0020469733056</v>
+        <v>183.6908704103906</v>
       </c>
       <c r="D7" t="n">
-        <v>15.0020469733056</v>
+        <v>183.6908704103906</v>
       </c>
       <c r="E7" t="n">
-        <v>15.0020469733056</v>
+        <v>183.6908704103906</v>
       </c>
       <c r="F7" t="n">
-        <v>15.0020469733056</v>
+        <v>183.6908704103906</v>
       </c>
       <c r="G7" t="n">
         <v>15.0020469733056</v>
@@ -4731,46 +4731,46 @@
         <v>15.0020469733056</v>
       </c>
       <c r="L7" t="n">
-        <v>27.03967056230179</v>
+        <v>187.8896250884407</v>
       </c>
       <c r="M7" t="n">
-        <v>42.98993985170723</v>
+        <v>373.5399563830974</v>
       </c>
       <c r="N7" t="n">
-        <v>66.41847329396343</v>
+        <v>559.1902876777542</v>
       </c>
       <c r="O7" t="n">
-        <v>67.74542702828998</v>
+        <v>721.9284911143044</v>
       </c>
       <c r="P7" t="n">
-        <v>49.45491281910429</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="Q7" t="n">
-        <v>15.0020469733056</v>
+        <v>746.7254979846275</v>
       </c>
       <c r="R7" t="n">
-        <v>15.0020469733056</v>
+        <v>746.7254979846275</v>
       </c>
       <c r="S7" t="n">
-        <v>15.0020469733056</v>
+        <v>746.7254979846275</v>
       </c>
       <c r="T7" t="n">
-        <v>15.0020469733056</v>
+        <v>557.3057129681426</v>
       </c>
       <c r="U7" t="n">
-        <v>15.0020469733056</v>
+        <v>373.1106554268754</v>
       </c>
       <c r="V7" t="n">
-        <v>15.0020469733056</v>
+        <v>183.6908704103906</v>
       </c>
       <c r="W7" t="n">
-        <v>15.0020469733056</v>
+        <v>183.6908704103906</v>
       </c>
       <c r="X7" t="n">
-        <v>15.0020469733056</v>
+        <v>183.6908704103906</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.0020469733056</v>
+        <v>183.6908704103906</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>750.10234866528</v>
+        <v>812.6207999344512</v>
       </c>
       <c r="C8" t="n">
-        <v>750.10234866528</v>
+        <v>812.6207999344512</v>
       </c>
       <c r="D8" t="n">
-        <v>560.6825636487952</v>
+        <v>454.3551013277007</v>
       </c>
       <c r="E8" t="n">
-        <v>371.2627786323103</v>
+        <v>454.3551013277007</v>
       </c>
       <c r="F8" t="n">
-        <v>371.2627786323103</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="G8" t="n">
-        <v>181.8429936158254</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="H8" t="n">
-        <v>15.0020469733056</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="I8" t="n">
-        <v>15.0020469733056</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="J8" t="n">
-        <v>21.03371160678489</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>80.81213159058956</v>
+        <v>366.8168396232718</v>
       </c>
       <c r="L8" t="n">
-        <v>191.8743094079186</v>
+        <v>669.5878927711869</v>
       </c>
       <c r="M8" t="n">
-        <v>347.1218190644756</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>509.4952041123831</v>
+        <v>1417.286540135168</v>
       </c>
       <c r="O8" t="n">
-        <v>649.4845259985586</v>
+        <v>1761.960612545598</v>
       </c>
       <c r="P8" t="n">
-        <v>734.4611726020269</v>
+        <v>2021.630958172449</v>
       </c>
       <c r="Q8" t="n">
-        <v>750.10234866528</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="R8" t="n">
-        <v>750.10234866528</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="S8" t="n">
-        <v>750.10234866528</v>
+        <v>2036.325171642786</v>
       </c>
       <c r="T8" t="n">
-        <v>750.10234866528</v>
+        <v>1826.151173794702</v>
       </c>
       <c r="U8" t="n">
-        <v>750.10234866528</v>
+        <v>1576.225890171343</v>
       </c>
       <c r="V8" t="n">
-        <v>750.10234866528</v>
+        <v>1576.225890171343</v>
       </c>
       <c r="W8" t="n">
-        <v>750.10234866528</v>
+        <v>1576.225890171343</v>
       </c>
       <c r="X8" t="n">
-        <v>750.10234866528</v>
+        <v>1202.760131910263</v>
       </c>
       <c r="Y8" t="n">
-        <v>750.10234866528</v>
+        <v>812.6207999344512</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15.0020469733056</v>
+        <v>701.6819910831828</v>
       </c>
       <c r="C9" t="n">
-        <v>15.0020469733056</v>
+        <v>610.3105233657637</v>
       </c>
       <c r="D9" t="n">
-        <v>15.0020469733056</v>
+        <v>461.3761137045125</v>
       </c>
       <c r="E9" t="n">
-        <v>15.0020469733056</v>
+        <v>302.138658699057</v>
       </c>
       <c r="F9" t="n">
-        <v>15.0020469733056</v>
+        <v>302.138658699057</v>
       </c>
       <c r="G9" t="n">
-        <v>15.0020469733056</v>
+        <v>165.2626649141729</v>
       </c>
       <c r="H9" t="n">
-        <v>15.0020469733056</v>
+        <v>69.80729798300612</v>
       </c>
       <c r="I9" t="n">
-        <v>15.0020469733056</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="J9" t="n">
-        <v>15.0020469733056</v>
+        <v>89.55356510562336</v>
       </c>
       <c r="K9" t="n">
-        <v>67.13418877024218</v>
+        <v>440.9010965631282</v>
       </c>
       <c r="L9" t="n">
-        <v>183.554828077265</v>
+        <v>698.4522321231161</v>
       </c>
       <c r="M9" t="n">
-        <v>338.7690911140245</v>
+        <v>1018.359127591626</v>
       </c>
       <c r="N9" t="n">
-        <v>512.5000587546604</v>
+        <v>1361.141651586258</v>
       </c>
       <c r="O9" t="n">
-        <v>649.2101578476351</v>
+        <v>1652.500897840824</v>
       </c>
       <c r="P9" t="n">
-        <v>739.5989987017065</v>
+        <v>1867.009313401725</v>
       </c>
       <c r="Q9" t="n">
-        <v>750.1023486652799</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="R9" t="n">
-        <v>750.1023486652799</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="S9" t="n">
-        <v>750.1023486652799</v>
+        <v>2029.495166406374</v>
       </c>
       <c r="T9" t="n">
-        <v>560.6825636487951</v>
+        <v>1834.78484488035</v>
       </c>
       <c r="U9" t="n">
-        <v>393.8416170062753</v>
+        <v>1606.683255013614</v>
       </c>
       <c r="V9" t="n">
-        <v>204.4218319897905</v>
+        <v>1371.531146781871</v>
       </c>
       <c r="W9" t="n">
-        <v>15.0020469733056</v>
+        <v>1117.293790053669</v>
       </c>
       <c r="X9" t="n">
-        <v>15.0020469733056</v>
+        <v>909.4422898481366</v>
       </c>
       <c r="Y9" t="n">
-        <v>15.0020469733056</v>
+        <v>701.6819910831828</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>67.74542702828998</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="C10" t="n">
-        <v>67.74542702828998</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="D10" t="n">
-        <v>67.74542702828998</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="E10" t="n">
-        <v>67.74542702828998</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="F10" t="n">
-        <v>67.74542702828998</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="G10" t="n">
-        <v>67.74542702828998</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="H10" t="n">
-        <v>67.74542702828998</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="I10" t="n">
-        <v>67.74542702828998</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="J10" t="n">
-        <v>29.24882464404146</v>
+        <v>58.69630920174244</v>
       </c>
       <c r="K10" t="n">
-        <v>15.0020469733056</v>
+        <v>213.7203003246708</v>
       </c>
       <c r="L10" t="n">
-        <v>27.03967056230179</v>
+        <v>467.6240706728887</v>
       </c>
       <c r="M10" t="n">
-        <v>42.98993985170723</v>
+        <v>745.7191196640791</v>
       </c>
       <c r="N10" t="n">
-        <v>66.41847329396343</v>
+        <v>1022.636306385109</v>
       </c>
       <c r="O10" t="n">
-        <v>67.74542702828998</v>
+        <v>1262.397853152953</v>
       </c>
       <c r="P10" t="n">
-        <v>67.74542702828998</v>
+        <v>1444.034594271087</v>
       </c>
       <c r="Q10" t="n">
-        <v>67.74542702828998</v>
+        <v>1486.355378693648</v>
       </c>
       <c r="R10" t="n">
-        <v>67.74542702828998</v>
+        <v>1486.355378693648</v>
       </c>
       <c r="S10" t="n">
-        <v>67.74542702828998</v>
+        <v>1486.355378693648</v>
       </c>
       <c r="T10" t="n">
-        <v>67.74542702828998</v>
+        <v>1262.751521386272</v>
       </c>
       <c r="U10" t="n">
-        <v>67.74542702828998</v>
+        <v>973.6252003602951</v>
       </c>
       <c r="V10" t="n">
-        <v>67.74542702828998</v>
+        <v>718.9407121544083</v>
       </c>
       <c r="W10" t="n">
-        <v>67.74542702828998</v>
+        <v>429.5235421174477</v>
       </c>
       <c r="X10" t="n">
-        <v>67.74542702828998</v>
+        <v>201.5339912194303</v>
       </c>
       <c r="Y10" t="n">
-        <v>67.74542702828998</v>
+        <v>201.5339912194303</v>
       </c>
     </row>
     <row r="11">
@@ -5017,52 +5017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1561.900772669911</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C11" t="n">
-        <v>1561.900772669911</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D11" t="n">
-        <v>1561.900772669911</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H11" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
@@ -5071,22 +5071,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U11" t="n">
-        <v>3009.337405520488</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V11" t="n">
-        <v>2678.274518176917</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W11" t="n">
-        <v>2325.505862906803</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X11" t="n">
-        <v>1952.040104645723</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="Y11" t="n">
-        <v>1561.900772669911</v>
+        <v>2048.39542574861</v>
       </c>
     </row>
     <row r="12">
@@ -5096,73 +5096,73 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387292</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
         <v>1109.759191501176</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>920.8870058181845</v>
+        <v>759.689087308229</v>
       </c>
       <c r="C13" t="n">
-        <v>920.8870058181845</v>
+        <v>590.7529043803221</v>
       </c>
       <c r="D13" t="n">
-        <v>770.7703664058488</v>
+        <v>440.6362649679863</v>
       </c>
       <c r="E13" t="n">
-        <v>622.8572728234557</v>
+        <v>292.7231713855932</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>292.7231713855932</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>125.0203347603122</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>78.33486996962284</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>176.6457242372932</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
-        <v>332.3555681596504</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>499.7880494588481</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
-        <v>671.0968864886956</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>809.0152357068853</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P13" t="n">
-        <v>907.9662384596438</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>920.8870058181845</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>920.8870058181845</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S13" t="n">
-        <v>920.8870058181845</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T13" t="n">
-        <v>920.8870058181845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U13" t="n">
-        <v>920.8870058181845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V13" t="n">
-        <v>920.8870058181845</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W13" t="n">
-        <v>920.8870058181845</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="X13" t="n">
-        <v>920.8870058181845</v>
+        <v>941.3375521384687</v>
       </c>
       <c r="Y13" t="n">
-        <v>920.8870058181845</v>
+        <v>941.3375521384687</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2005.586939522201</v>
+        <v>2098.941407629261</v>
       </c>
       <c r="C14" t="n">
-        <v>1636.624422581789</v>
+        <v>1729.978890688849</v>
       </c>
       <c r="D14" t="n">
-        <v>1278.358723975039</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E14" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F14" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
@@ -5299,31 +5299,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3155.791869823214</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U14" t="n">
-        <v>3155.791869823214</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V14" t="n">
-        <v>3155.791869823214</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W14" t="n">
-        <v>3155.791869823214</v>
+        <v>2862.546497866152</v>
       </c>
       <c r="X14" t="n">
-        <v>2782.326111562134</v>
+        <v>2489.080739605072</v>
       </c>
       <c r="Y14" t="n">
-        <v>2392.186779586323</v>
+        <v>2098.941407629261</v>
       </c>
     </row>
     <row r="15">
@@ -5333,46 +5333,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
         <v>2407.411984886741</v>
@@ -5390,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5399,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>920.8870058181849</v>
+        <v>849.5195445507012</v>
       </c>
       <c r="C16" t="n">
-        <v>920.8870058181849</v>
+        <v>680.5833616227943</v>
       </c>
       <c r="D16" t="n">
-        <v>770.7703664058491</v>
+        <v>530.4667222104586</v>
       </c>
       <c r="E16" t="n">
-        <v>622.857272823456</v>
+        <v>382.5536286280654</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>235.6636811301551</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>67.96084450487405</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>78.33486996962287</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>176.6457242372933</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L16" t="n">
-        <v>332.3555681596505</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>499.7880494588483</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N16" t="n">
-        <v>671.0968864886958</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O16" t="n">
-        <v>809.0152357068855</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P16" t="n">
-        <v>907.9662384596442</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>920.8870058181849</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>920.8870058181849</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>920.8870058181849</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T16" t="n">
-        <v>920.8870058181849</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U16" t="n">
-        <v>920.8870058181849</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V16" t="n">
-        <v>920.8870058181849</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="W16" t="n">
-        <v>920.8870058181849</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="X16" t="n">
-        <v>920.8870058181849</v>
+        <v>1031.168009380941</v>
       </c>
       <c r="Y16" t="n">
-        <v>920.8870058181849</v>
+        <v>1031.168009380941</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1617.939223126803</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C17" t="n">
-        <v>1617.939223126803</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D17" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E17" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F17" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V17" t="n">
-        <v>2424.744041450753</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W17" t="n">
-        <v>2378.004821452004</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X17" t="n">
-        <v>2004.539063190924</v>
+        <v>2023.224262645911</v>
       </c>
       <c r="Y17" t="n">
-        <v>2004.539063190924</v>
+        <v>2023.224262645911</v>
       </c>
     </row>
     <row r="18">
@@ -5591,10 +5591,10 @@
         <v>85.51940803064525</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
         <v>398.4535849031479</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>699.1203903877109</v>
+        <v>550.0410834832817</v>
       </c>
       <c r="C19" t="n">
-        <v>530.184207459804</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="D19" t="n">
-        <v>530.184207459804</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E19" t="n">
-        <v>530.184207459804</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F19" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G19" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H19" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962287</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>176.6457242372933</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
-        <v>332.3555681596505</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>499.7880494588483</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
-        <v>671.0968864886958</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
-        <v>809.0152357068855</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P19" t="n">
-        <v>907.9662384596442</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>920.8870058181849</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>920.8870058181849</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>920.8870058181849</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T19" t="n">
-        <v>699.1203903877109</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U19" t="n">
-        <v>699.1203903877109</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V19" t="n">
-        <v>699.1203903877109</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W19" t="n">
-        <v>699.1203903877109</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X19" t="n">
-        <v>699.1203903877109</v>
+        <v>731.6895483135214</v>
       </c>
       <c r="Y19" t="n">
-        <v>699.1203903877109</v>
+        <v>731.6895483135214</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1934.208022973022</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C20" t="n">
-        <v>1934.208022973022</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D20" t="n">
-        <v>1575.942324366272</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E20" t="n">
-        <v>1190.154071768027</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F20" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G20" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3304.112245206191</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3304.112245206191</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U20" t="n">
-        <v>3050.581768480028</v>
+        <v>3097.195137235408</v>
       </c>
       <c r="V20" t="n">
-        <v>3050.581768480028</v>
+        <v>2766.132249891837</v>
       </c>
       <c r="W20" t="n">
-        <v>2697.813113209913</v>
+        <v>2413.363594621723</v>
       </c>
       <c r="X20" t="n">
-        <v>2324.347354948834</v>
+        <v>2413.363594621723</v>
       </c>
       <c r="Y20" t="n">
-        <v>1934.208022973022</v>
+        <v>2023.224262645911</v>
       </c>
     </row>
     <row r="21">
@@ -5807,31 +5807,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
         <v>398.4535849031479</v>
@@ -5864,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5873,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2471.230932223169</v>
+        <v>525.6839958452709</v>
       </c>
       <c r="C22" t="n">
-        <v>2471.230932223169</v>
+        <v>525.6839958452709</v>
       </c>
       <c r="D22" t="n">
-        <v>2471.230932223169</v>
+        <v>375.5673564329352</v>
       </c>
       <c r="E22" t="n">
-        <v>2471.230932223169</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F22" t="n">
-        <v>2471.230932223169</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G22" t="n">
-        <v>2471.230932223169</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H22" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I22" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
-        <v>2483.053685760609</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>2581.364540028279</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
-        <v>2737.074383950637</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>2904.506865249834</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
-        <v>3075.815702279682</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
-        <v>3213.734051497871</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P22" t="n">
-        <v>3312.68505425063</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>3325.605821609171</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T22" t="n">
-        <v>3325.605821609171</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U22" t="n">
-        <v>3036.502954734814</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V22" t="n">
-        <v>2781.818466528927</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="W22" t="n">
-        <v>2492.401296491967</v>
+        <v>935.322011573528</v>
       </c>
       <c r="X22" t="n">
-        <v>2471.230932223169</v>
+        <v>707.3324606755107</v>
       </c>
       <c r="Y22" t="n">
-        <v>2471.230932223169</v>
+        <v>707.3324606755107</v>
       </c>
     </row>
     <row r="23">
@@ -5965,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1934.208022973022</v>
+        <v>1032.061124352532</v>
       </c>
       <c r="C23" t="n">
-        <v>1934.208022973022</v>
+        <v>663.0986074121199</v>
       </c>
       <c r="D23" t="n">
-        <v>1575.942324366272</v>
+        <v>304.8329088053694</v>
       </c>
       <c r="E23" t="n">
-        <v>1190.154071768027</v>
+        <v>304.8329088053694</v>
       </c>
       <c r="F23" t="n">
-        <v>779.1681669784198</v>
+        <v>304.8329088053694</v>
       </c>
       <c r="G23" t="n">
-        <v>364.0957168234162</v>
+        <v>304.8329088053694</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218286</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
         <v>2120.555556060171</v>
@@ -6007,10 +6007,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R23" t="n">
         <v>3325.605821609171</v>
@@ -6019,22 +6019,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U23" t="n">
-        <v>3325.605821609171</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V23" t="n">
-        <v>3063.71585028307</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W23" t="n">
-        <v>2710.947195012955</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X23" t="n">
-        <v>2710.947195012955</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y23" t="n">
-        <v>2320.807863037144</v>
+        <v>1418.660964416653</v>
       </c>
     </row>
     <row r="24">
@@ -6059,16 +6059,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K24" t="n">
         <v>398.4535849031479</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>377.0996507379416</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C25" t="n">
-        <v>377.0996507379416</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D25" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E25" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F25" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J25" t="n">
-        <v>78.33486996962287</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K25" t="n">
-        <v>176.6457242372933</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L25" t="n">
-        <v>332.3555681596505</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M25" t="n">
-        <v>499.7880494588483</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N25" t="n">
-        <v>671.0968864886958</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O25" t="n">
-        <v>809.0152357068855</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P25" t="n">
-        <v>907.9662384596442</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q25" t="n">
-        <v>920.8870058181849</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R25" t="n">
-        <v>920.8870058181849</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S25" t="n">
-        <v>920.8870058181849</v>
+        <v>1751.913851851648</v>
       </c>
       <c r="T25" t="n">
-        <v>920.8870058181849</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U25" t="n">
-        <v>631.7841389438285</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V25" t="n">
-        <v>377.0996507379416</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W25" t="n">
-        <v>377.0996507379416</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X25" t="n">
-        <v>377.0996507379416</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y25" t="n">
-        <v>377.0996507379416</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1934.208022973022</v>
+        <v>1295.236214140705</v>
       </c>
       <c r="C26" t="n">
-        <v>1934.208022973022</v>
+        <v>1295.236214140705</v>
       </c>
       <c r="D26" t="n">
-        <v>1575.942324366272</v>
+        <v>1295.236214140705</v>
       </c>
       <c r="E26" t="n">
-        <v>1190.154071768027</v>
+        <v>909.4479615424607</v>
       </c>
       <c r="F26" t="n">
-        <v>779.1681669784198</v>
+        <v>498.4620567528531</v>
       </c>
       <c r="G26" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H26" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
         <v>66.5121164321834</v>
@@ -6253,25 +6253,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T26" t="n">
-        <v>3258.169882376993</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U26" t="n">
-        <v>3004.639405650829</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V26" t="n">
-        <v>2673.576518307258</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W26" t="n">
-        <v>2320.807863037144</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X26" t="n">
-        <v>2320.807863037144</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y26" t="n">
-        <v>2320.807863037144</v>
+        <v>1681.836054204827</v>
       </c>
     </row>
     <row r="27">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C28" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D28" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E28" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F28" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G28" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H28" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I28" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J28" t="n">
-        <v>2483.053685760608</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K28" t="n">
-        <v>2581.364540028279</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L28" t="n">
-        <v>2737.074383950636</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M28" t="n">
-        <v>2904.506865249834</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N28" t="n">
-        <v>3075.815702279681</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O28" t="n">
-        <v>3213.734051497871</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P28" t="n">
-        <v>3312.685054250629</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q28" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S28" t="n">
-        <v>3325.60582160917</v>
+        <v>1751.913851851648</v>
       </c>
       <c r="T28" t="n">
-        <v>3325.60582160917</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U28" t="n">
-        <v>3036.502954734814</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V28" t="n">
-        <v>2781.818466528927</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W28" t="n">
-        <v>2652.879397053409</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X28" t="n">
-        <v>2652.879397053409</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y28" t="n">
-        <v>2652.879397053409</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1636.624422581789</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="C29" t="n">
-        <v>1636.624422581789</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="D29" t="n">
-        <v>1278.358723975039</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E29" t="n">
         <v>892.5704713767946</v>
@@ -6493,22 +6493,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U29" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V29" t="n">
-        <v>2424.744041450753</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W29" t="n">
-        <v>2400.229512818681</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X29" t="n">
-        <v>2026.763754557601</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y29" t="n">
-        <v>1636.624422581789</v>
+        <v>1514.348043559525</v>
       </c>
     </row>
     <row r="30">
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>66.5121164321834</v>
+        <v>462.6853918125577</v>
       </c>
       <c r="C31" t="n">
-        <v>66.5121164321834</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D31" t="n">
-        <v>66.5121164321834</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E31" t="n">
         <v>66.5121164321834</v>
@@ -6621,52 +6621,52 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J31" t="n">
-        <v>78.33486996962286</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K31" t="n">
-        <v>176.6457242372932</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L31" t="n">
-        <v>332.3555681596505</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M31" t="n">
-        <v>499.7880494588483</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N31" t="n">
-        <v>671.0968864886958</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O31" t="n">
-        <v>809.0152357068855</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P31" t="n">
-        <v>907.9662384596442</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q31" t="n">
-        <v>920.8870058181849</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R31" t="n">
-        <v>920.8870058181849</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S31" t="n">
-        <v>838.6033255730482</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T31" t="n">
-        <v>838.6033255730482</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U31" t="n">
-        <v>838.6033255730482</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V31" t="n">
-        <v>583.9188373671614</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W31" t="n">
-        <v>294.5016673302007</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X31" t="n">
-        <v>66.5121164321834</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y31" t="n">
-        <v>66.5121164321834</v>
+        <v>644.3338566427974</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1619.798686923957</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C32" t="n">
-        <v>1250.836169983545</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D32" t="n">
-        <v>892.5704713767946</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E32" t="n">
         <v>892.5704713767946</v>
@@ -6700,10 +6700,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
@@ -6727,25 +6727,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T32" t="n">
-        <v>3119.628073993392</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U32" t="n">
-        <v>3067.235319774533</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V32" t="n">
-        <v>2736.172432430963</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W32" t="n">
-        <v>2383.403777160848</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X32" t="n">
-        <v>2009.938018899768</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y32" t="n">
-        <v>1619.798686923957</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="33">
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>195.4511859077019</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C34" t="n">
         <v>66.5121164321834</v>
@@ -6858,52 +6858,52 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J34" t="n">
-        <v>78.33486996962286</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K34" t="n">
-        <v>176.6457242372932</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L34" t="n">
-        <v>332.3555681596505</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M34" t="n">
-        <v>499.7880494588483</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N34" t="n">
-        <v>671.0968864886958</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O34" t="n">
-        <v>809.0152357068855</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P34" t="n">
-        <v>907.9662384596442</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q34" t="n">
-        <v>920.8870058181849</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R34" t="n">
-        <v>920.8870058181849</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S34" t="n">
-        <v>920.8870058181849</v>
+        <v>1751.913851851648</v>
       </c>
       <c r="T34" t="n">
-        <v>920.8870058181849</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U34" t="n">
-        <v>631.7841389438285</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V34" t="n">
-        <v>377.0996507379416</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W34" t="n">
-        <v>377.0996507379416</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X34" t="n">
-        <v>377.0996507379416</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y34" t="n">
-        <v>377.0996507379416</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1250.80968089488</v>
+        <v>1736.589769957181</v>
       </c>
       <c r="C35" t="n">
-        <v>881.8471639544687</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D35" t="n">
-        <v>523.5814653477182</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E35" t="n">
-        <v>523.5814653477182</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F35" t="n">
         <v>523.5814653477182</v>
@@ -6937,25 +6937,25 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q35" t="n">
         <v>3266.588755052368</v>
@@ -6964,25 +6964,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U35" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V35" t="n">
-        <v>2424.744041450753</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="W35" t="n">
-        <v>2071.975386180638</v>
+        <v>2513.328941997114</v>
       </c>
       <c r="X35" t="n">
-        <v>1698.509627919559</v>
+        <v>2513.328941997114</v>
       </c>
       <c r="Y35" t="n">
-        <v>1308.370295943747</v>
+        <v>2123.189610021303</v>
       </c>
     </row>
     <row r="36">
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>428.615504601943</v>
+        <v>423.5412774992673</v>
       </c>
       <c r="C37" t="n">
-        <v>259.6793216740361</v>
+        <v>423.5412774992673</v>
       </c>
       <c r="D37" t="n">
-        <v>109.5626822617004</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E37" t="n">
-        <v>66.5121164321834</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F37" t="n">
         <v>66.5121164321834</v>
@@ -7095,52 +7095,52 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
-        <v>78.33486996962286</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K37" t="n">
-        <v>176.6457242372932</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L37" t="n">
-        <v>332.3555681596505</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>499.7880494588483</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N37" t="n">
-        <v>671.0968864886958</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O37" t="n">
-        <v>809.0152357068855</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P37" t="n">
-        <v>907.9662384596442</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>920.8870058181849</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>831.0565485757129</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>831.0565485757129</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T37" t="n">
-        <v>831.0565485757129</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U37" t="n">
-        <v>831.0565485757129</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V37" t="n">
-        <v>831.0565485757129</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W37" t="n">
-        <v>831.0565485757129</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X37" t="n">
-        <v>831.0565485757129</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y37" t="n">
-        <v>610.2639694321828</v>
+        <v>423.5412774992673</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1619.798686923957</v>
+        <v>1639.433183287318</v>
       </c>
       <c r="C38" t="n">
-        <v>1250.836169983545</v>
+        <v>1270.470666346906</v>
       </c>
       <c r="D38" t="n">
-        <v>892.5704713767946</v>
+        <v>912.2049677401556</v>
       </c>
       <c r="E38" t="n">
-        <v>892.5704713767946</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="F38" t="n">
-        <v>481.5845665871869</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G38" t="n">
-        <v>66.51211643218343</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060171</v>
@@ -7192,34 +7192,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T38" t="n">
-        <v>3122.772272495085</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U38" t="n">
-        <v>3122.772272495085</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V38" t="n">
-        <v>3122.772272495085</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W38" t="n">
-        <v>2770.00361722497</v>
+        <v>2403.038273524209</v>
       </c>
       <c r="X38" t="n">
-        <v>2396.53785896389</v>
+        <v>2029.572515263129</v>
       </c>
       <c r="Y38" t="n">
-        <v>2006.398526988078</v>
+        <v>1639.433183287318</v>
       </c>
     </row>
     <row r="39">
@@ -7244,16 +7244,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C40" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D40" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E40" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F40" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G40" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H40" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I40" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J40" t="n">
-        <v>2483.05368576061</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K40" t="n">
-        <v>2581.36454002828</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L40" t="n">
-        <v>2737.074383950638</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>2904.506865249835</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N40" t="n">
-        <v>3075.815702279683</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O40" t="n">
-        <v>3213.734051497872</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P40" t="n">
-        <v>3312.685054250631</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>3325.605821609171</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T40" t="n">
-        <v>3304.435457340374</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U40" t="n">
-        <v>3015.332590466018</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V40" t="n">
-        <v>2760.648102260131</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W40" t="n">
-        <v>2471.23093222317</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X40" t="n">
-        <v>2471.23093222317</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y40" t="n">
-        <v>2471.23093222317</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1619.798686923957</v>
+        <v>1381.278680221567</v>
       </c>
       <c r="C41" t="n">
-        <v>1250.836169983545</v>
+        <v>1012.316163281155</v>
       </c>
       <c r="D41" t="n">
-        <v>892.5704713767946</v>
+        <v>1012.316163281155</v>
       </c>
       <c r="E41" t="n">
-        <v>892.5704713767946</v>
+        <v>626.5279106829107</v>
       </c>
       <c r="F41" t="n">
-        <v>481.5845665871869</v>
+        <v>215.5420058933032</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V41" t="n">
-        <v>3122.772272495085</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W41" t="n">
-        <v>2770.00361722497</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X41" t="n">
-        <v>2396.53785896389</v>
+        <v>2158.0178522615</v>
       </c>
       <c r="Y41" t="n">
-        <v>2006.398526988078</v>
+        <v>1767.878520285688</v>
       </c>
     </row>
     <row r="42">
@@ -7481,16 +7481,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031479</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.3330353074677</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C43" t="n">
-        <v>155.3330353074677</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D43" t="n">
-        <v>155.3330353074677</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J43" t="n">
-        <v>78.33486996962289</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K43" t="n">
-        <v>176.6457242372933</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L43" t="n">
-        <v>332.3555681596505</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>499.7880494588484</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N43" t="n">
-        <v>671.0968864886959</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O43" t="n">
-        <v>809.0152357068856</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P43" t="n">
-        <v>907.9662384596443</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>920.887005818185</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>920.887005818185</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>920.887005818185</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T43" t="n">
-        <v>699.120390387711</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U43" t="n">
-        <v>410.0175235133546</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V43" t="n">
-        <v>155.3330353074677</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W43" t="n">
-        <v>155.3330353074677</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X43" t="n">
-        <v>155.3330353074677</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y43" t="n">
-        <v>155.3330353074677</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1822.632236038044</v>
+        <v>1480.516858765518</v>
       </c>
       <c r="C44" t="n">
-        <v>1453.669719097632</v>
+        <v>1480.516858765518</v>
       </c>
       <c r="D44" t="n">
-        <v>1095.404020490882</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E44" t="n">
-        <v>709.6157678926375</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F44" t="n">
-        <v>298.6298631030299</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G44" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V44" t="n">
-        <v>3325.605821609171</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W44" t="n">
-        <v>2972.837166339057</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X44" t="n">
-        <v>2599.371408077977</v>
+        <v>2257.256030805451</v>
       </c>
       <c r="Y44" t="n">
-        <v>2209.232076102166</v>
+        <v>1867.11669882964</v>
       </c>
     </row>
     <row r="45">
@@ -7724,7 +7724,7 @@
         <v>85.51940803064576</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228006</v>
@@ -7733,7 +7733,7 @@
         <v>398.4535849031475</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7782,73 +7782,73 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
-        <v>78.33486996962289</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>176.6457242372933</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L46" t="n">
-        <v>332.3555681596505</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>499.7880494588484</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N46" t="n">
-        <v>671.0968864886959</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O46" t="n">
-        <v>809.0152357068856</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P46" t="n">
-        <v>907.9662384596443</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>920.887005818185</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>920.887005818185</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>920.887005818185</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T46" t="n">
-        <v>826.6806181737402</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U46" t="n">
-        <v>537.5777512993837</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V46" t="n">
-        <v>537.5777512993837</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W46" t="n">
-        <v>248.1605812624231</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X46" t="n">
-        <v>248.1605812624231</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y46" t="n">
         <v>248.1605812624231</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265846</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8139,22 +8139,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>14.1043098940285</v>
+        <v>14.10430989402859</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>171.4142040457082</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>163.8604018711115</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>74.60115408961722</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8291,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>15.37922103265838</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8376,25 +8376,25 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14.1043098940285</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>171.4142040457084</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>163.8604018711117</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>46.56605103777606</v>
       </c>
       <c r="Q7" t="n">
-        <v>34.57770336425653</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8528,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>196.2184492047232</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>31.66886087721423</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,25 +8610,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22555,19 +22555,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059421</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753914</v>
+        <v>219.3504585753918</v>
       </c>
       <c r="G2" t="n">
-        <v>225.572246063738</v>
+        <v>225.5722460637384</v>
       </c>
       <c r="H2" t="n">
-        <v>129.3682389399022</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,13 +22594,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368131</v>
+        <v>11.36529914368145</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>158.7758131900532</v>
       </c>
       <c r="T2" t="n">
-        <v>173.7426610000867</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
@@ -22615,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>221.0654014799593</v>
       </c>
     </row>
     <row r="3">
@@ -22634,22 +22634,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>97.20342715228284</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>86.17995787214534</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550657</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265838</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,19 +22673,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714237</v>
+        <v>26.91122581714242</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>7.884010625681157</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377129</v>
       </c>
       <c r="V3" t="n">
-        <v>45.2749999831052</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -22728,7 +22728,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553082</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22746,10 +22746,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709383</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845772</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -22761,19 +22761,19 @@
         <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>98.73949432713064</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>64.61205615750836</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>98.99741117027136</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>87.31395869231969</v>
       </c>
       <c r="Y4" t="n">
-        <v>166.3687070976603</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22783,16 +22783,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>195.2082544971606</v>
+        <v>217.5613044873859</v>
       </c>
       <c r="C5" t="n">
-        <v>177.7473046046875</v>
+        <v>177.7473046046876</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>167.157454454363</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059418</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22831,10 +22831,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>4.968575157639769</v>
+        <v>11.36529914368131</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T5" t="n">
         <v>213.4438810562068</v>
@@ -22843,7 +22843,7 @@
         <v>251.1692605650303</v>
       </c>
       <c r="V5" t="n">
-        <v>140.2266713038149</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22862,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -22883,10 +22883,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I6" t="n">
-        <v>58.90455890409149</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J6" t="n">
-        <v>1.922779328426826</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>72.43289562846319</v>
+        <v>26.91122581714237</v>
       </c>
       <c r="S6" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T6" t="n">
-        <v>195.4095977920012</v>
+        <v>15.4199724379024</v>
       </c>
       <c r="U6" t="n">
         <v>225.8637684100909</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310532</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459965</v>
       </c>
       <c r="X6" t="n">
-        <v>18.24739803715747</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>18.15710861098435</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22956,7 +22956,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>153.4336708318196</v>
@@ -22968,7 +22968,7 @@
         <v>23.43375830553082</v>
       </c>
       <c r="K7" t="n">
-        <v>14.1043098940285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22995,13 +22995,13 @@
         <v>206.7802557954962</v>
       </c>
       <c r="T7" t="n">
-        <v>223.7196734901001</v>
+        <v>36.19408632378014</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2650814934503</v>
+        <v>103.9119745275958</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>64.61205615750805</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23026,22 +23026,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>167.1574544543629</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>194.4047829059418</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>225.572246063738</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H8" t="n">
-        <v>151.7212889301276</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>125.4713171199747</v>
+        <v>78.1636065770829</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>77.08171901666375</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>213.4438810562068</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1692605650303</v>
+        <v>3.645061906990378</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23086,10 +23086,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23102,28 +23102,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>82.25074594807091</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>58.90455890409149</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>15.37922103265838</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>72.43289562846319</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>7.884010625681213</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>60.6912312339964</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>45.27499998310526</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>64.1693959945996</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23178,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>23.24883344741346</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -23193,16 +23193,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.0019352027142</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
-        <v>153.4336708318196</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I10" t="n">
-        <v>125.7072197708667</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>18.95836326784812</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23220,31 +23220,31 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>18.10760906709383</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.343082173845772</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>132.8223696106904</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S10" t="n">
-        <v>206.7802557954962</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T10" t="n">
-        <v>223.7196734901001</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2650814934503</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>55.47806595232277</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23311,10 +23311,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23323,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>158.9758076887238</v>
       </c>
     </row>
     <row r="12">
@@ -23351,7 +23351,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.108446667785756e-12</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1.772586778758836</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>86.83187876947332</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>243.7637707342573</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>35.80215787152341</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -23557,7 +23557,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1.772586778758495</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>143.3207741223571</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,22 +23703,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23737,7 +23737,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23794,10 +23794,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>302.9691409186516</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>8.361756451291512</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>93.51892148877394</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,16 +23946,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>86.48213475401676</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>87.90912114922641</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>134.056356217052</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>130.645337983077</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
@@ -24177,22 +24177,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>204.750994762928</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24208,22 +24208,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>58.67017993786635</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -24259,19 +24259,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>68.4811868572952</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>7.159622314540002</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24414,10 +24414,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696594</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24448,7 +24448,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24457,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>319.4759788962368</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>137.1563902997643</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24651,10 +24651,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696594</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>158.8733195558282</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>132.4469369735852</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24733,7 +24733,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24742,7 +24742,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>324.9715853716621</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>70.08471413683885</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24888,13 +24888,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>108.3081818887566</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24925,7 +24925,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24967,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>199.1263452822316</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>290.3129182374927</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>39.59714231786454</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25125,10 +25125,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696594</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,19 +25153,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>325.7488327651027</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>307.8841276422958</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25213,13 +25213,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>87.01161423129975</v>
       </c>
       <c r="E37" t="n">
-        <v>103.8139024753473</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25399,16 +25399,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>250.2239373181434</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>3.112756516674068</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>16.142136056966</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25599,10 +25599,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>198.59028865006</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25633,16 +25633,16 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>263.3821350869449</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
@@ -25687,7 +25687,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>126.9470448471888</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25794,7 +25794,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>58.50125296003773</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25836,10 +25836,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>16.14213605696608</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25867,10 +25867,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>196.1234179510347</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>181.1251564493155</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26073,25 +26073,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>126.2846255081688</v>
+        <v>16.14213605696608</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>442963.9366358957</v>
+        <v>473394.35834147</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>436950.3765713549</v>
+        <v>473394.3583414702</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>427675.4978580608</v>
+        <v>733458.9428503405</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>839054.4922903115</v>
+        <v>881131.5377110821</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>839054.4922903117</v>
+        <v>881131.537711082</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>839054.4922903115</v>
+        <v>881131.537711082</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>839054.4922903114</v>
+        <v>881131.5377110819</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>839054.4922903116</v>
+        <v>881131.537711082</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>839054.4922903115</v>
+        <v>881131.5377110819</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>839054.4922903114</v>
+        <v>881131.5377110819</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>839054.4922903114</v>
+        <v>881131.5377110819</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>839054.4922903115</v>
+        <v>881131.537711082</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>839054.4922903116</v>
+        <v>881131.5377110819</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>839054.4922903116</v>
+        <v>881131.5377110818</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>839054.4922903115</v>
+        <v>881131.5377110819</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>163202.2911462238</v>
+        <v>171419.5356187815</v>
       </c>
       <c r="C2" t="n">
-        <v>161570.0391287056</v>
+        <v>171419.5356187815</v>
       </c>
       <c r="D2" t="n">
-        <v>159052.5720493829</v>
+        <v>265569.8802231802</v>
       </c>
       <c r="E2" t="n">
-        <v>312588.9285003117</v>
+        <v>323947.2440223746</v>
       </c>
       <c r="F2" t="n">
-        <v>312588.9285003118</v>
+        <v>323947.2440223746</v>
       </c>
       <c r="G2" t="n">
-        <v>312588.9285003119</v>
+        <v>323947.2440223747</v>
       </c>
       <c r="H2" t="n">
-        <v>312588.9285003119</v>
+        <v>323947.2440223744</v>
       </c>
       <c r="I2" t="n">
-        <v>312588.9285003116</v>
+        <v>323947.2440223744</v>
       </c>
       <c r="J2" t="n">
-        <v>312588.9285003117</v>
+        <v>323947.2440223744</v>
       </c>
       <c r="K2" t="n">
-        <v>312588.9285003118</v>
+        <v>323947.2440223744</v>
       </c>
       <c r="L2" t="n">
-        <v>312588.9285003117</v>
+        <v>323947.2440223743</v>
       </c>
       <c r="M2" t="n">
-        <v>312588.9285003117</v>
+        <v>323947.2440223744</v>
       </c>
       <c r="N2" t="n">
-        <v>312588.9285003117</v>
+        <v>323947.2440223744</v>
       </c>
       <c r="O2" t="n">
-        <v>312588.9285003117</v>
+        <v>323947.2440223745</v>
       </c>
       <c r="P2" t="n">
-        <v>312588.9285003117</v>
+        <v>323947.2440223746</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208455</v>
+        <v>591356.9025208449</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.14093847211916e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>371558.5249487667</v>
       </c>
       <c r="E3" t="n">
-        <v>627134.6436336674</v>
+        <v>276030.7457669093</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854461</v>
+        <v>49064.94472854444</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>89743.37813127047</v>
       </c>
       <c r="M3" t="n">
-        <v>160456.4418678773</v>
+        <v>72091.35261608605</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5032.428940419639</v>
+        <v>13430.84951441317</v>
       </c>
       <c r="C4" t="n">
-        <v>3400.176922901371</v>
+        <v>13430.84951441317</v>
       </c>
       <c r="D4" t="n">
-        <v>882.7098435787007</v>
+        <v>21058.76689085119</v>
       </c>
       <c r="E4" t="n">
-        <v>584.646989006123</v>
+        <v>12210.17896214071</v>
       </c>
       <c r="F4" t="n">
-        <v>584.6469890061231</v>
+        <v>12210.17896214071</v>
       </c>
       <c r="G4" t="n">
-        <v>584.6469890061231</v>
+        <v>12210.17896214071</v>
       </c>
       <c r="H4" t="n">
-        <v>584.646989006123</v>
+        <v>12210.17896214071</v>
       </c>
       <c r="I4" t="n">
-        <v>584.6469890061231</v>
+        <v>12210.17896214071</v>
       </c>
       <c r="J4" t="n">
-        <v>584.6469890061231</v>
+        <v>12210.17896214071</v>
       </c>
       <c r="K4" t="n">
-        <v>584.6469890061231</v>
+        <v>12210.17896214071</v>
       </c>
       <c r="L4" t="n">
-        <v>584.6469890061232</v>
+        <v>12210.17896214071</v>
       </c>
       <c r="M4" t="n">
-        <v>584.6469890061231</v>
+        <v>12210.17896214071</v>
       </c>
       <c r="N4" t="n">
-        <v>584.6469890061232</v>
+        <v>12210.17896214071</v>
       </c>
       <c r="O4" t="n">
-        <v>584.6469890061232</v>
+        <v>12210.17896214071</v>
       </c>
       <c r="P4" t="n">
-        <v>584.6469890061231</v>
+        <v>12210.17896214071</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161354</v>
       </c>
       <c r="C5" t="n">
         <v>56985.80041161358</v>
       </c>
       <c r="D5" t="n">
-        <v>56985.80041161358</v>
+        <v>85199.0818558723</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
@@ -26505,10 +26505,10 @@
         <v>74306.34056139328</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="P5" t="n">
         <v>74306.3405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-490172.8407266549</v>
+        <v>-501857.980252656</v>
       </c>
       <c r="C6" t="n">
-        <v>101184.0617941906</v>
+        <v>89498.9222681884</v>
       </c>
       <c r="D6" t="n">
-        <v>101184.0617941906</v>
+        <v>-218795.1756019077</v>
       </c>
       <c r="E6" t="n">
-        <v>-389436.7026837551</v>
+        <v>-42076.21056612982</v>
       </c>
       <c r="F6" t="n">
-        <v>237697.9409499122</v>
+        <v>233954.5352007795</v>
       </c>
       <c r="G6" t="n">
-        <v>237697.9409499124</v>
+        <v>233954.5352007796</v>
       </c>
       <c r="H6" t="n">
-        <v>237697.9409499124</v>
+        <v>233954.5352007794</v>
       </c>
       <c r="I6" t="n">
-        <v>237697.9409499122</v>
+        <v>233954.5352007794</v>
       </c>
       <c r="J6" t="n">
-        <v>188632.9962213676</v>
+        <v>184889.5904722349</v>
       </c>
       <c r="K6" t="n">
-        <v>237697.9409499124</v>
+        <v>233954.5352007794</v>
       </c>
       <c r="L6" t="n">
-        <v>237697.9409499122</v>
+        <v>144211.1570695088</v>
       </c>
       <c r="M6" t="n">
-        <v>77241.49908203502</v>
+        <v>161863.1825846933</v>
       </c>
       <c r="N6" t="n">
-        <v>237697.9409499122</v>
+        <v>233954.5352007794</v>
       </c>
       <c r="O6" t="n">
-        <v>237697.9409499123</v>
+        <v>233954.5352007795</v>
       </c>
       <c r="P6" t="n">
-        <v>237697.9409499123</v>
+        <v>233954.5352007795</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="C3" t="n">
         <v>548.4699409129047</v>
       </c>
       <c r="D3" t="n">
-        <v>548.4699409129047</v>
+        <v>853.7106645376848</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="C4" t="n">
         <v>187.52558716632</v>
       </c>
       <c r="D4" t="n">
-        <v>187.52558716632</v>
+        <v>542.1149567261639</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="J4" t="n">
         <v>831.4014554022925</v>
@@ -26825,13 +26825,13 @@
         <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
     </row>
   </sheetData>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>305.2407236247801</v>
       </c>
       <c r="E3" t="n">
-        <v>541.3067596803934</v>
+        <v>236.0660360556135</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>354.5893695598439</v>
       </c>
       <c r="E4" t="n">
-        <v>643.8758682359726</v>
+        <v>289.286498676129</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663193</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>354.5893695598439</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359726</v>
+        <v>289.286498676129</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>354.5893695598439</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359726</v>
+        <v>289.286498676129</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954483</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043121</v>
+        <v>85.00457245043114</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655542</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.4720934528637</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.950432967289</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470271</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470025</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622677</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244295</v>
+        <v>317.0679923244292</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974682</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619219</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924582</v>
+        <v>9.651968507924574</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31123,46 +31123,46 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590851</v>
+        <v>40.61782109590848</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>111.4584056340082</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621735</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405031</v>
       </c>
       <c r="M3" t="n">
-        <v>298.916117797533</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829659</v>
+        <v>306.8275379829652</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292671</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.276266862887</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550077</v>
+        <v>73.24660833550071</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T3" t="n">
-        <v>4.75513090282037</v>
+        <v>4.755130902820366</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.07761367088390157</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445822</v>
+        <v>0.9890441557445813</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620018</v>
+        <v>8.793501675620011</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114196</v>
+        <v>69.92542181114189</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>147.0438920276989</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604413</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592432</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784861</v>
+        <v>82.81896107784854</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647911</v>
+        <v>44.47102176647907</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181395</v>
+        <v>4.225915938181392</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.05394786304061359</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.204904285077002</v>
+        <v>3.432002671508278</v>
       </c>
       <c r="H8" t="n">
-        <v>22.58097600954486</v>
+        <v>35.14799735958416</v>
       </c>
       <c r="I8" t="n">
-        <v>85.00457245043121</v>
+        <v>132.312282993323</v>
       </c>
       <c r="J8" t="n">
-        <v>187.1384950655544</v>
+        <v>291.286936740926</v>
       </c>
       <c r="K8" t="n">
-        <v>280.4720934528639</v>
+        <v>436.5636098258715</v>
       </c>
       <c r="L8" t="n">
-        <v>347.9504329672893</v>
+        <v>541.5957615840431</v>
       </c>
       <c r="M8" t="n">
-        <v>387.1618995470274</v>
+        <v>602.6296390934783</v>
       </c>
       <c r="N8" t="n">
-        <v>393.4265838470025</v>
+        <v>612.3808166839013</v>
       </c>
       <c r="O8" t="n">
-        <v>371.501566862268</v>
+        <v>578.2538401190908</v>
       </c>
       <c r="P8" t="n">
-        <v>317.0679923244295</v>
+        <v>493.5262741662302</v>
       </c>
       <c r="Q8" t="n">
-        <v>238.1048576151093</v>
+        <v>370.6176784928398</v>
       </c>
       <c r="R8" t="n">
-        <v>138.5038187974684</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S8" t="n">
-        <v>50.24425639619223</v>
+        <v>78.20676087699496</v>
       </c>
       <c r="T8" t="n">
-        <v>9.651968507924582</v>
+        <v>15.02359169452749</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.2745602137206622</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.179727797435304</v>
+        <v>1.836283316175398</v>
       </c>
       <c r="H9" t="n">
-        <v>11.39368688575676</v>
+        <v>17.73463097464134</v>
       </c>
       <c r="I9" t="n">
-        <v>40.61782109590851</v>
+        <v>63.2229124209512</v>
       </c>
       <c r="J9" t="n">
-        <v>111.4584056340083</v>
+        <v>173.4885040076063</v>
       </c>
       <c r="K9" t="n">
-        <v>190.5001680621737</v>
+        <v>296.5194861913579</v>
       </c>
       <c r="L9" t="n">
-        <v>256.1509851405033</v>
+        <v>398.7070419616801</v>
       </c>
       <c r="M9" t="n">
-        <v>298.916117797533</v>
+        <v>465.2723121730381</v>
       </c>
       <c r="N9" t="n">
-        <v>306.8275379829655</v>
+        <v>477.5866858152847</v>
       </c>
       <c r="O9" t="n">
-        <v>280.6872536292674</v>
+        <v>436.8985133884509</v>
       </c>
       <c r="P9" t="n">
-        <v>225.2762668628872</v>
+        <v>350.6495746475634</v>
       </c>
       <c r="Q9" t="n">
-        <v>150.5912184936715</v>
+        <v>234.3999545349508</v>
       </c>
       <c r="R9" t="n">
-        <v>73.24660833550077</v>
+        <v>114.0106430867497</v>
       </c>
       <c r="S9" t="n">
-        <v>21.91292641288821</v>
+        <v>34.10815721053861</v>
       </c>
       <c r="T9" t="n">
-        <v>4.75513090282037</v>
+        <v>7.40151038405785</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.1208081129062762</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9890441557445822</v>
+        <v>1.539478247526972</v>
       </c>
       <c r="H10" t="n">
-        <v>8.793501675620018</v>
+        <v>13.68736114619436</v>
       </c>
       <c r="I10" t="n">
-        <v>29.74325515639162</v>
+        <v>46.29630948017478</v>
       </c>
       <c r="J10" t="n">
-        <v>69.92542181114196</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K10" t="n">
-        <v>114.9089482765069</v>
+        <v>178.8593818490428</v>
       </c>
       <c r="L10" t="n">
-        <v>147.0438920276991</v>
+        <v>228.8784296368737</v>
       </c>
       <c r="M10" t="n">
-        <v>155.0371670682166</v>
+        <v>241.3202129282508</v>
       </c>
       <c r="N10" t="n">
-        <v>151.3507297604415</v>
+        <v>235.582157642014</v>
       </c>
       <c r="O10" t="n">
-        <v>139.7968957592433</v>
+        <v>217.5982526595398</v>
       </c>
       <c r="P10" t="n">
-        <v>119.6203949820538</v>
+        <v>186.1928964099894</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.81896107784861</v>
+        <v>128.9103103451904</v>
       </c>
       <c r="R10" t="n">
-        <v>44.47102176647911</v>
+        <v>69.22054011153094</v>
       </c>
       <c r="S10" t="n">
-        <v>17.23634224147603</v>
+        <v>26.82890727735641</v>
       </c>
       <c r="T10" t="n">
-        <v>4.225915938181395</v>
+        <v>6.577770693978881</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.08397154077419859</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32235,7 +32235,7 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953983</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
         <v>557.281137600381</v>
@@ -32493,7 +32493,7 @@
         <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781685</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
         <v>275.1987363563569</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33034,7 +33034,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
         <v>609.6478166837925</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33517,10 +33517,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33669,7 +33669,7 @@
         <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095016</v>
       </c>
       <c r="O35" t="n">
         <v>738.1512123099059</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33909,7 +33909,7 @@
         <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099063</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
         <v>629.9949819746414</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34228,10 +34228,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.09259053886808</v>
+        <v>6.092590538867938</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788338</v>
+        <v>60.38224240788315</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>112.1840179973018</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197547</v>
+        <v>156.8156663197544</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504116</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405813</v>
+        <v>141.403355440581</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915996</v>
+        <v>85.83499656915967</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065978</v>
+        <v>15.79916774065958</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781472</v>
+        <v>52.65872908781455</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606291</v>
+        <v>117.5966053606289</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755147</v>
+        <v>156.7820838755144</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996325</v>
+        <v>175.4858258996319</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P3" t="n">
-        <v>91.301859448557</v>
+        <v>91.3018594485568</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764999</v>
+        <v>10.60944440764987</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.1592157464608</v>
+        <v>174.6339172880151</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061155</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520829</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400552</v>
+        <v>75.94151139701766</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>116.8989542469472</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35099,19 +35099,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>12.1592157464608</v>
+        <v>174.6339172880152</v>
       </c>
       <c r="M7" t="n">
-        <v>16.11138312061155</v>
+        <v>187.52558716632</v>
       </c>
       <c r="N7" t="n">
-        <v>23.66518529520829</v>
+        <v>187.52558716632</v>
       </c>
       <c r="O7" t="n">
-        <v>1.340357307400552</v>
+        <v>164.382023673283</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>28.45844197068223</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.09259053886808</v>
+        <v>110.2410322142397</v>
       </c>
       <c r="K8" t="n">
-        <v>60.38224240788338</v>
+        <v>216.4737587808909</v>
       </c>
       <c r="L8" t="n">
-        <v>112.1840179973021</v>
+        <v>305.8293466140559</v>
       </c>
       <c r="M8" t="n">
-        <v>156.8156663197547</v>
+        <v>372.2834058662056</v>
       </c>
       <c r="N8" t="n">
-        <v>164.0135202504116</v>
+        <v>382.9677530873104</v>
       </c>
       <c r="O8" t="n">
-        <v>141.4033554405813</v>
+        <v>348.155628697404</v>
       </c>
       <c r="P8" t="n">
-        <v>85.83499656915996</v>
+        <v>262.2932784109606</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.79916774065978</v>
+        <v>148.3119886183904</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>46.65087734093964</v>
       </c>
       <c r="K9" t="n">
-        <v>52.65872908781472</v>
+        <v>354.8964964217221</v>
       </c>
       <c r="L9" t="n">
-        <v>117.5966053606291</v>
+        <v>260.1526621818059</v>
       </c>
       <c r="M9" t="n">
-        <v>156.7820838755147</v>
+        <v>323.1382782510198</v>
       </c>
       <c r="N9" t="n">
-        <v>175.4858258996321</v>
+        <v>346.2449737319514</v>
       </c>
       <c r="O9" t="n">
-        <v>138.091009184823</v>
+        <v>294.3022689440064</v>
       </c>
       <c r="P9" t="n">
-        <v>91.301859448557</v>
+        <v>216.6751672332332</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.60944440764999</v>
+        <v>304.4954681847784</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>15.48193198348417</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>156.5898900231599</v>
       </c>
       <c r="L10" t="n">
-        <v>12.1592157464608</v>
+        <v>256.4684548971899</v>
       </c>
       <c r="M10" t="n">
-        <v>16.11138312061155</v>
+        <v>280.9040898900913</v>
       </c>
       <c r="N10" t="n">
-        <v>23.66518529520829</v>
+        <v>279.7143300212426</v>
       </c>
       <c r="O10" t="n">
-        <v>1.340357307400552</v>
+        <v>242.1833805735795</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>183.4714556748829</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>42.74826709349601</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.94217529034286</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>99.30389319966699</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>157.2826706286436</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>169.1237184840381</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>173.0392293230782</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>139.3114638567573</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>99.95050783106927</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.05128016014217</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.94217529034289</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>99.30389319966704</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>157.2826706286437</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>169.1237184840382</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>173.0392293230783</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>139.3114638567573</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>99.95050783106933</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.0512801601422</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.787000968712</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
         <v>337.1912865554005</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>11.94217529034289</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>99.30389319966704</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>157.2826706286437</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>169.1237184840382</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>173.0392293230783</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>139.3114638567573</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>99.95050783106933</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.0512801601422</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36141,7 +36141,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.794304803719</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
         <v>59.61319854222478</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>11.94217529034289</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>99.30389319966704</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>157.2826706286437</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>169.1237184840382</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>173.0392293230783</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>139.3114638567573</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>99.95050783106933</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>13.0512801601422</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>11.94217529034289</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>99.30389319966704</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
-        <v>157.2826706286437</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
-        <v>169.1237184840382</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
-        <v>173.0392293230783</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>139.3114638567573</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
-        <v>99.95050783106933</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>13.0512801601422</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36682,7 +36682,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
         <v>478.3061046004592</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>11.94217529034289</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
-        <v>99.30389319966704</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
-        <v>157.2826706286437</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M28" t="n">
-        <v>169.1237184840382</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N28" t="n">
-        <v>173.0392293230783</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>139.3114638567573</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
-        <v>99.95050783106933</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>13.0512801601422</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>11.94217529034289</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
-        <v>99.30389319966704</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
-        <v>157.2826706286437</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M31" t="n">
-        <v>169.1237184840382</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N31" t="n">
-        <v>173.0392293230783</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>139.3114638567573</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
-        <v>99.95050783106933</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>13.0512801601422</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37165,10 +37165,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>11.94217529034289</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
-        <v>99.30389319966704</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
-        <v>157.2826706286437</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M34" t="n">
-        <v>169.1237184840382</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N34" t="n">
-        <v>173.0392293230783</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>139.3114638567573</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
-        <v>99.95050783106933</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>13.0512801601422</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37317,7 +37317,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129106</v>
       </c>
       <c r="O35" t="n">
         <v>508.0530008882191</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>11.94217529034289</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>99.30389319966704</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
-        <v>157.2826706286437</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M37" t="n">
-        <v>169.1237184840382</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N37" t="n">
-        <v>173.0392293230783</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>139.3114638567573</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
-        <v>99.95050783106933</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>13.0512801601422</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37557,7 +37557,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882196</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
         <v>398.7619862193719</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>11.94217529034289</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
-        <v>99.30389319966704</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
-        <v>157.2826706286437</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M40" t="n">
-        <v>169.1237184840382</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N40" t="n">
-        <v>173.0392293230783</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>139.3114638567573</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
-        <v>99.95050783106933</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>13.0512801601422</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37876,10 +37876,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>11.94217529034289</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>99.30389319966704</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
-        <v>157.2826706286437</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M43" t="n">
-        <v>169.1237184840382</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N43" t="n">
-        <v>173.0392293230783</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>139.3114638567573</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
-        <v>99.95050783106933</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>13.0512801601422</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>11.94217529034289</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>99.30389319966704</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>157.2826706286437</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M46" t="n">
-        <v>169.1237184840382</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N46" t="n">
-        <v>173.0392293230783</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>139.3114638567573</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>99.95050783106933</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>13.0512801601422</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
